--- a/risultati-firewall-analysis-new.xlsx
+++ b/risultati-firewall-analysis-new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\firewall-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB2B44-716E-4FA3-8FCC-FD99934C046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBFED9-0929-4066-B5CB-E9F5D6F12D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,18 +243,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -549,14 +550,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="6" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
@@ -1220,27 +1221,27 @@
         <v>1863330.9</v>
       </c>
       <c r="T19">
-        <f>AVERAGE(T8:T16)</f>
+        <f t="shared" ref="T19:Y19" si="2">AVERAGE(T8:T16)</f>
         <v>45006.222222222219</v>
       </c>
       <c r="U19">
-        <f>AVERAGE(U8:U16)</f>
+        <f t="shared" si="2"/>
         <v>5707.7777777777774</v>
       </c>
       <c r="V19">
-        <f>AVERAGE(V8:V16)</f>
+        <f t="shared" si="2"/>
         <v>35199.111111111109</v>
       </c>
       <c r="W19">
-        <f>AVERAGE(W8:W16)</f>
+        <f t="shared" si="2"/>
         <v>1849.3333333333333</v>
       </c>
       <c r="X19">
-        <f>AVERAGE(X8:X16)</f>
+        <f t="shared" si="2"/>
         <v>2250</v>
       </c>
       <c r="Y19">
-        <f>AVERAGE(Y8:Y16)</f>
+        <f t="shared" si="2"/>
         <v>7458265</v>
       </c>
     </row>
@@ -1880,71 +1881,71 @@
         <v>268.2</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:K36" si="2">AVERAGE(G25:G34)</f>
+        <f t="shared" ref="G36:K36" si="3">AVERAGE(G25:G34)</f>
         <v>77.2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>131727.6</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:R36" si="3">AVERAGE(M25:M34)</f>
+        <f t="shared" ref="M36:R36" si="4">AVERAGE(M25:M34)</f>
         <v>7153.7</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1156.7</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5223</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>567</v>
       </c>
       <c r="R36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1863330.9</v>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36:Y36" si="4">AVERAGE(T25:T34)</f>
+        <f t="shared" ref="T36:Y36" si="5">AVERAGE(T25:T34)</f>
         <v>46207.1</v>
       </c>
       <c r="U36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5319.7</v>
       </c>
       <c r="V36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35926.1</v>
       </c>
       <c r="W36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>903</v>
       </c>
       <c r="X36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4058.3</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7465203</v>
       </c>
     </row>
@@ -2566,47 +2567,47 @@
         <v>276.2</v>
       </c>
       <c r="G53">
-        <f t="shared" ref="G53:K53" si="5">AVERAGE(G42:G51)</f>
+        <f t="shared" ref="G53:K53" si="6">AVERAGE(G42:G51)</f>
         <v>77.2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131727.6</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:R53" si="6">AVERAGE(M42:M51)</f>
+        <f t="shared" ref="M53:R53" si="7">AVERAGE(M42:M51)</f>
         <v>9124.9</v>
       </c>
       <c r="N53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1106.9000000000001</v>
       </c>
       <c r="O53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5712</v>
       </c>
       <c r="P53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1917</v>
       </c>
       <c r="R53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1863330.9</v>
       </c>
       <c r="T53">
@@ -2614,23 +2615,23 @@
         <v>48881.888888888891</v>
       </c>
       <c r="U53">
-        <f t="shared" ref="U53:Y53" si="7">AVERAGE(U42:U50)</f>
+        <f t="shared" ref="U53:Y53" si="8">AVERAGE(U42:U50)</f>
         <v>5861.8888888888887</v>
       </c>
       <c r="V53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34365.444444444445</v>
       </c>
       <c r="W53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1485.6666666666667</v>
       </c>
       <c r="X53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7168.8888888888887</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7458265</v>
       </c>
     </row>
@@ -2660,14 +2661,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
@@ -4785,14 +4786,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
@@ -6219,12 +6220,12 @@
       </c>
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
       <c r="M43">
         <v>5790</v>
       </c>
@@ -6263,12 +6264,12 @@
       </c>
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
       <c r="M44">
         <v>6240</v>
       </c>
@@ -6307,12 +6308,12 @@
       </c>
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
       <c r="M45">
         <v>7200</v>
       </c>
@@ -6351,12 +6352,12 @@
       </c>
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
       <c r="M46">
         <v>8211</v>
       </c>
@@ -6395,12 +6396,12 @@
       </c>
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
       <c r="M47">
         <v>8411</v>
       </c>
@@ -6439,12 +6440,12 @@
       </c>
     </row>
     <row r="48" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
       <c r="M48">
         <v>4541</v>
       </c>
@@ -6483,12 +6484,12 @@
       </c>
     </row>
     <row r="49" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
       <c r="M49">
         <v>4193</v>
       </c>
@@ -6509,12 +6510,12 @@
       </c>
     </row>
     <row r="50" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
       <c r="M50">
         <v>6843</v>
       </c>
@@ -6535,12 +6536,12 @@
       </c>
     </row>
     <row r="51" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
       <c r="M51">
         <v>4022</v>
       </c>
@@ -6561,12 +6562,12 @@
       </c>
     </row>
     <row r="52" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
       <c r="M52">
         <v>7351</v>
       </c>
@@ -6598,21 +6599,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573430F4-4B3E-4C4D-AC90-9B8245FB210A}">
   <dimension ref="D4:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45:Y54"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="63" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
@@ -6703,18 +6704,42 @@
       <c r="K9">
         <v>2212140</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="M9" s="5">
+        <v>6851</v>
+      </c>
+      <c r="N9" s="5">
+        <v>796</v>
+      </c>
+      <c r="O9" s="5">
+        <v>5840</v>
+      </c>
+      <c r="P9" s="5">
+        <v>209</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>6</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1540125</v>
+      </c>
+      <c r="T9" s="5">
+        <v>3158</v>
+      </c>
+      <c r="U9" s="5">
+        <v>387</v>
+      </c>
+      <c r="V9" s="5">
+        <v>2432</v>
+      </c>
+      <c r="W9" s="5">
+        <v>335</v>
+      </c>
+      <c r="X9" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>630252</v>
+      </c>
     </row>
     <row r="10" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F10">
@@ -6735,18 +6760,42 @@
       <c r="K10">
         <v>2339280</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="M10" s="5">
+        <v>8470</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1630</v>
+      </c>
+      <c r="O10" s="5">
+        <v>6470</v>
+      </c>
+      <c r="P10" s="5">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>240</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1531710</v>
+      </c>
+      <c r="T10" s="5">
+        <v>5015</v>
+      </c>
+      <c r="U10" s="5">
+        <v>293</v>
+      </c>
+      <c r="V10" s="5">
+        <v>3392</v>
+      </c>
+      <c r="W10" s="5">
+        <v>270</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1060</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>625086</v>
+      </c>
     </row>
     <row r="11" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F11">
@@ -6767,18 +6816,42 @@
       <c r="K11">
         <v>2349450</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
+      <c r="M11" s="5">
+        <v>9301</v>
+      </c>
+      <c r="N11" s="5">
+        <v>641</v>
+      </c>
+      <c r="O11" s="5">
+        <v>4499</v>
+      </c>
+      <c r="P11" s="5">
+        <v>280</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3881</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1507005</v>
+      </c>
+      <c r="T11" s="5">
+        <v>3840</v>
+      </c>
+      <c r="U11" s="5">
+        <v>270</v>
+      </c>
+      <c r="V11" s="5">
+        <v>3180</v>
+      </c>
+      <c r="W11" s="5">
+        <v>390</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>609840</v>
+      </c>
     </row>
     <row r="12" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F12">
@@ -6799,18 +6872,42 @@
       <c r="K12">
         <v>2173668</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="M12" s="5">
+        <v>9361</v>
+      </c>
+      <c r="N12" s="5">
+        <v>441</v>
+      </c>
+      <c r="O12" s="5">
+        <v>8370</v>
+      </c>
+      <c r="P12" s="5">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>470</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1429680</v>
+      </c>
+      <c r="T12" s="5">
+        <v>3401</v>
+      </c>
+      <c r="U12" s="5">
+        <v>371</v>
+      </c>
+      <c r="V12" s="5">
+        <v>2560</v>
+      </c>
+      <c r="W12" s="5">
+        <v>270</v>
+      </c>
+      <c r="X12" s="5">
+        <v>200</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>594594</v>
+      </c>
     </row>
     <row r="13" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F13">
@@ -6831,18 +6928,42 @@
       <c r="K13">
         <v>2339280</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="M13" s="5">
+        <v>8101</v>
+      </c>
+      <c r="N13" s="5">
+        <v>441</v>
+      </c>
+      <c r="O13" s="5">
+        <v>7530</v>
+      </c>
+      <c r="P13" s="5">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>60</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1421784</v>
+      </c>
+      <c r="T13" s="5">
+        <v>3161</v>
+      </c>
+      <c r="U13" s="5">
+        <v>331</v>
+      </c>
+      <c r="V13" s="5">
+        <v>2580</v>
+      </c>
+      <c r="W13" s="5">
+        <v>240</v>
+      </c>
+      <c r="X13" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>574770</v>
+      </c>
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F14">
@@ -6863,18 +6984,42 @@
       <c r="K14">
         <v>2359845</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="M14" s="5">
+        <v>9381</v>
+      </c>
+      <c r="N14" s="5">
+        <v>601</v>
+      </c>
+      <c r="O14" s="5">
+        <v>8610</v>
+      </c>
+      <c r="P14" s="5">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1515150</v>
+      </c>
+      <c r="T14" s="5">
+        <v>3831</v>
+      </c>
+      <c r="U14" s="5">
+        <v>211</v>
+      </c>
+      <c r="V14" s="5">
+        <v>3130</v>
+      </c>
+      <c r="W14" s="5">
+        <v>230</v>
+      </c>
+      <c r="X14" s="5">
+        <v>260</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>653310</v>
+      </c>
     </row>
     <row r="15" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F15">
@@ -6895,18 +7040,42 @@
       <c r="K15">
         <v>2370150</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="M15" s="5">
+        <v>7641</v>
+      </c>
+      <c r="N15" s="5">
+        <v>511</v>
+      </c>
+      <c r="O15" s="5">
+        <v>6820</v>
+      </c>
+      <c r="P15" s="5">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>180</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1437408</v>
+      </c>
+      <c r="T15" s="5">
+        <v>4772</v>
+      </c>
+      <c r="U15" s="5">
+        <v>192</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2900</v>
+      </c>
+      <c r="W15" s="5">
+        <v>280</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1400</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>620004</v>
+      </c>
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F16">
@@ -6927,18 +7096,42 @@
       <c r="K16">
         <v>2329020</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="M16" s="5">
+        <v>9012</v>
+      </c>
+      <c r="N16" s="5">
+        <v>492</v>
+      </c>
+      <c r="O16" s="5">
+        <v>8320</v>
+      </c>
+      <c r="P16" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>20</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1506960</v>
+      </c>
+      <c r="T16" s="5">
+        <v>3602</v>
+      </c>
+      <c r="U16" s="5">
+        <v>192</v>
+      </c>
+      <c r="V16" s="5">
+        <v>3110</v>
+      </c>
+      <c r="W16" s="5">
+        <v>270</v>
+      </c>
+      <c r="X16" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>610650</v>
+      </c>
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F17">
@@ -6959,18 +7152,42 @@
       <c r="K17">
         <v>2339235</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="M17" s="5">
+        <v>8422</v>
+      </c>
+      <c r="N17" s="5">
+        <v>502</v>
+      </c>
+      <c r="O17" s="5">
+        <v>7610</v>
+      </c>
+      <c r="P17" s="5">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>180</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1498680</v>
+      </c>
+      <c r="T17" s="5">
+        <v>3952</v>
+      </c>
+      <c r="U17" s="5">
+        <v>262</v>
+      </c>
+      <c r="V17" s="5">
+        <v>3170</v>
+      </c>
+      <c r="W17" s="5">
+        <v>300</v>
+      </c>
+      <c r="X17" s="5">
+        <v>220</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>637065</v>
+      </c>
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F18">
@@ -6991,18 +7208,42 @@
       <c r="K18">
         <v>2359845</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="M18" s="5">
+        <v>7291</v>
+      </c>
+      <c r="N18" s="5">
+        <v>491</v>
+      </c>
+      <c r="O18" s="5">
+        <v>6440</v>
+      </c>
+      <c r="P18" s="5">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>230</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1421910</v>
+      </c>
+      <c r="T18" s="5">
+        <v>6502</v>
+      </c>
+      <c r="U18" s="5">
+        <v>272</v>
+      </c>
+      <c r="V18" s="5">
+        <v>3550</v>
+      </c>
+      <c r="W18" s="5">
+        <v>390</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2290</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>653400</v>
+      </c>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F20">
@@ -7029,6 +7270,54 @@
         <f t="shared" si="0"/>
         <v>2317191.2999999998</v>
       </c>
+      <c r="M20">
+        <f t="shared" ref="M20:R20" si="1">AVERAGE(M9:M18)</f>
+        <v>8383.1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>654.6</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>7050.9</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>150.9</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>526.70000000000005</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>1481041.2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ref="T20:Y20" si="2">AVERAGE(T9:T18)</f>
+        <v>4123.3999999999996</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>278.10000000000002</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>3000.4</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>297.5</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>547.4</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="2"/>
+        <v>620897.1</v>
+      </c>
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
@@ -7137,12 +7426,24 @@
       <c r="R27">
         <v>2646270</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="T27" s="5">
+        <v>12574</v>
+      </c>
+      <c r="U27" s="5">
+        <v>2118</v>
+      </c>
+      <c r="V27" s="5">
+        <v>9986</v>
+      </c>
+      <c r="W27" s="5">
+        <v>430</v>
+      </c>
+      <c r="X27" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>2079252</v>
+      </c>
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F28">
@@ -7181,12 +7482,24 @@
       <c r="R28">
         <v>2701080</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="T28" s="5">
+        <v>12210</v>
+      </c>
+      <c r="U28" s="5">
+        <v>1511</v>
+      </c>
+      <c r="V28" s="5">
+        <v>10009</v>
+      </c>
+      <c r="W28" s="5">
+        <v>310</v>
+      </c>
+      <c r="X28" s="5">
+        <v>380</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>2217735</v>
+      </c>
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F29">
@@ -7225,12 +7538,24 @@
       <c r="R29">
         <v>2690100</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="T29" s="5">
+        <v>14090</v>
+      </c>
+      <c r="U29" s="5">
+        <v>2540</v>
+      </c>
+      <c r="V29" s="5">
+        <v>10870</v>
+      </c>
+      <c r="W29" s="5">
+        <v>680</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>2187900</v>
+      </c>
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F30">
@@ -7269,12 +7594,24 @@
       <c r="R30">
         <v>2668140</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="T30" s="5">
+        <v>12511</v>
+      </c>
+      <c r="U30" s="5">
+        <v>1261</v>
+      </c>
+      <c r="V30" s="5">
+        <v>7590</v>
+      </c>
+      <c r="W30" s="5">
+        <v>460</v>
+      </c>
+      <c r="X30" s="5">
+        <v>3200</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>2158065</v>
+      </c>
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F31">
@@ -7313,12 +7650,24 @@
       <c r="R31">
         <v>2711610</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
+      <c r="T31" s="5">
+        <v>12391</v>
+      </c>
+      <c r="U31" s="5">
+        <v>961</v>
+      </c>
+      <c r="V31" s="5">
+        <v>11190</v>
+      </c>
+      <c r="W31" s="5">
+        <v>200</v>
+      </c>
+      <c r="X31" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>2118825</v>
+      </c>
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F32">
@@ -7357,12 +7706,24 @@
       <c r="R32">
         <v>2734200</v>
       </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
+      <c r="T32" s="5">
+        <v>13551</v>
+      </c>
+      <c r="U32" s="5">
+        <v>2431</v>
+      </c>
+      <c r="V32" s="5">
+        <v>10420</v>
+      </c>
+      <c r="W32" s="5">
+        <v>400</v>
+      </c>
+      <c r="X32" s="5">
+        <v>300</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>2187810</v>
+      </c>
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F33">
@@ -7401,12 +7762,24 @@
       <c r="R33">
         <v>2667870</v>
       </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
+      <c r="T33" s="5">
+        <v>9721</v>
+      </c>
+      <c r="U33" s="5">
+        <v>971</v>
+      </c>
+      <c r="V33" s="5">
+        <v>8360</v>
+      </c>
+      <c r="W33" s="5">
+        <v>200</v>
+      </c>
+      <c r="X33" s="5">
+        <v>190</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>2207790</v>
+      </c>
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F34">
@@ -7445,12 +7818,24 @@
       <c r="R34">
         <v>2690100</v>
       </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
+      <c r="T34" s="5">
+        <v>8411</v>
+      </c>
+      <c r="U34" s="5">
+        <v>851</v>
+      </c>
+      <c r="V34" s="5">
+        <v>6900</v>
+      </c>
+      <c r="W34" s="5">
+        <v>650</v>
+      </c>
+      <c r="X34" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>2109150</v>
+      </c>
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F35">
@@ -7489,12 +7874,24 @@
       <c r="R35">
         <v>2712150</v>
       </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
+      <c r="T35" s="5">
+        <v>13971</v>
+      </c>
+      <c r="U35" s="5">
+        <v>931</v>
+      </c>
+      <c r="V35" s="5">
+        <v>12730</v>
+      </c>
+      <c r="W35" s="5">
+        <v>290</v>
+      </c>
+      <c r="X35" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>2158065</v>
+      </c>
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F36">
@@ -7533,12 +7930,24 @@
       <c r="R36">
         <v>2712150</v>
       </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
+      <c r="T36" s="5">
+        <v>16231</v>
+      </c>
+      <c r="U36" s="5">
+        <v>1141</v>
+      </c>
+      <c r="V36" s="5">
+        <v>8940</v>
+      </c>
+      <c r="W36" s="5">
+        <v>880</v>
+      </c>
+      <c r="X36" s="5">
+        <v>5270</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>2187900</v>
+      </c>
     </row>
     <row r="38" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F38">
@@ -7546,48 +7955,72 @@
         <v>25356.1</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:K38" si="1">AVERAGE(G27:G36)</f>
+        <f t="shared" ref="G38:K38" si="3">AVERAGE(G27:G36)</f>
         <v>4110.8</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18012.3</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1069</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2164</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4854568.5</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:R38" si="2">AVERAGE(M27:M36)</f>
+        <f t="shared" ref="M38:Y38" si="4">AVERAGE(M27:M36)</f>
         <v>20670.900000000001</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1462.9</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12528</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1382</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5298</v>
       </c>
       <c r="R38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2693367</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="4"/>
+        <v>12566.1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>1471.6</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="4"/>
+        <v>9699.5</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="4"/>
+        <v>945</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="4"/>
+        <v>2161249.2000000002</v>
       </c>
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.35">
@@ -8171,22 +8604,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:26" x14ac:dyDescent="0.35">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.35">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="4:26" x14ac:dyDescent="0.35">
       <c r="F6" t="s">

--- a/risultati-firewall-analysis-new.xlsx
+++ b/risultati-firewall-analysis-new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\firewall-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBFED9-0929-4066-B5CB-E9F5D6F12D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42550F-33F0-4F12-9138-3F2FE8F5031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="55">
   <si>
     <t>Total time</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>ALLOW FIRST</t>
-  </si>
-  <si>
-    <t>100 regole, 40 regole anomale</t>
-  </si>
-  <si>
-    <t>250 regole, 100 regole anomale</t>
   </si>
   <si>
     <t>500 regole, 200 regole anomale</t>
@@ -138,22 +132,10 @@
     <t>25% regole anomale</t>
   </si>
   <si>
-    <t>250 regole (62 regole anomale, 31 anomalie)</t>
-  </si>
-  <si>
     <t>500 regole (125 regole anomale, 62 anomalie)</t>
   </si>
   <si>
-    <t>100 regole, (25 regole anomale, 12 anomalie)</t>
-  </si>
-  <si>
     <t>50% regole anomale</t>
-  </si>
-  <si>
-    <t>100 regole, (50 regole anomale, 25 anomalie)</t>
-  </si>
-  <si>
-    <t>250 regole (125 regole anomale, 62 anomalie)</t>
   </si>
   <si>
     <t>500 regole (250 regole anomale, 125 anomalie)</t>
@@ -162,22 +144,13 @@
     <t>75% regole anomale</t>
   </si>
   <si>
-    <t>250 regole (187 regole anomale, 93 anomalie)</t>
-  </si>
-  <si>
     <t>500 regole (375 regole anomale, 187 anomalie)</t>
-  </si>
-  <si>
-    <t>100 regole, (75 regole anomale,  37 anomalie)</t>
   </si>
   <si>
     <t>TEST 3: incremento solo numero di regole (0.2, 0.5, WN)</t>
   </si>
   <si>
     <t>30 anomalie</t>
-  </si>
-  <si>
-    <t>250 regole</t>
   </si>
   <si>
     <t>500 regole</t>
@@ -203,6 +176,36 @@
   <si>
     <t>400 regole</t>
   </si>
+  <si>
+    <t>200 regole, 80 regole anomale</t>
+  </si>
+  <si>
+    <t>350 regole, 140 regole anomale</t>
+  </si>
+  <si>
+    <t>200 regole, (50 regole anomale, 25 anomalie)</t>
+  </si>
+  <si>
+    <t>350 regole (88 regole anomale, 44 anomalie)</t>
+  </si>
+  <si>
+    <t>200 regole, (100 regole anomale, 50 anomalie)</t>
+  </si>
+  <si>
+    <t>350 regole (175 regole anomale, 88 anomalie)</t>
+  </si>
+  <si>
+    <t>200 regole, (150 regole anomale,  75 anomalie)</t>
+  </si>
+  <si>
+    <t>350 regole (262 regole anomale, 131 anomalie)</t>
+  </si>
+  <si>
+    <t>200 regole</t>
+  </si>
+  <si>
+    <t>350 regole</t>
+  </si>
 </sst>
 </file>
 
@@ -217,18 +220,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,12 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:Y53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+    <sheetView topLeftCell="J30" zoomScale="86" workbookViewId="0">
+      <selection activeCell="Y53" sqref="Y53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,27 +546,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="6" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" t="s">
         <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-      <c r="T6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.35">
@@ -631,40 +627,40 @@
     </row>
     <row r="8" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F8">
-        <v>410</v>
+        <v>2965</v>
       </c>
       <c r="G8">
-        <v>140</v>
+        <v>586</v>
       </c>
       <c r="H8">
-        <v>250</v>
+        <v>2178</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="K8">
-        <v>130032</v>
+        <v>920304</v>
       </c>
       <c r="M8">
-        <v>7480</v>
+        <v>21152</v>
       </c>
       <c r="N8">
-        <v>2090</v>
+        <v>4074</v>
       </c>
       <c r="O8">
-        <v>5280</v>
+        <v>12238</v>
       </c>
       <c r="P8">
-        <v>50</v>
+        <v>4830</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>1956150</v>
+        <v>3771450</v>
       </c>
       <c r="T8">
         <v>50710</v>
@@ -687,40 +683,40 @@
     </row>
     <row r="9" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F9">
-        <v>211</v>
+        <v>3219</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>1026</v>
       </c>
       <c r="H9">
-        <v>150</v>
+        <v>2173</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c r="K9">
-        <v>136224</v>
+        <v>851760</v>
       </c>
       <c r="M9">
-        <v>16366</v>
+        <v>14680</v>
       </c>
       <c r="N9">
-        <v>1850</v>
+        <v>2460</v>
       </c>
       <c r="O9">
-        <v>5150</v>
+        <v>11960</v>
       </c>
       <c r="P9">
-        <v>750</v>
+        <v>80</v>
       </c>
       <c r="Q9">
-        <v>8616</v>
+        <v>180</v>
       </c>
       <c r="R9">
-        <v>1843380</v>
+        <v>3745440</v>
       </c>
       <c r="T9">
         <v>42965</v>
@@ -743,40 +739,40 @@
     </row>
     <row r="10" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F10">
-        <v>250</v>
+        <v>3240</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>2770</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>131580</v>
+        <v>920304</v>
       </c>
       <c r="M10">
-        <v>9469</v>
+        <v>17931</v>
       </c>
       <c r="N10">
-        <v>1090</v>
+        <v>2041</v>
       </c>
       <c r="O10">
-        <v>6729</v>
+        <v>15220</v>
       </c>
       <c r="P10">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Q10">
-        <v>1600</v>
+        <v>170</v>
       </c>
       <c r="R10">
-        <v>1937520</v>
+        <v>3719520</v>
       </c>
       <c r="T10">
         <v>51950</v>
@@ -799,40 +795,40 @@
     </row>
     <row r="11" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F11">
-        <v>310</v>
+        <v>3001</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>521</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>2470</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>131544</v>
+        <v>1003968</v>
       </c>
       <c r="M11">
-        <v>8049</v>
+        <v>14820</v>
       </c>
       <c r="N11">
-        <v>725</v>
+        <v>1830</v>
       </c>
       <c r="O11">
-        <v>6534</v>
+        <v>12750</v>
       </c>
       <c r="P11">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="Q11">
-        <v>530</v>
+        <v>130</v>
       </c>
       <c r="R11">
-        <v>1956240</v>
+        <v>3784500</v>
       </c>
       <c r="T11">
         <v>44844</v>
@@ -855,40 +851,40 @@
     </row>
     <row r="12" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F12">
-        <v>270</v>
+        <v>2992</v>
       </c>
       <c r="G12">
-        <v>70</v>
+        <v>512</v>
       </c>
       <c r="H12">
-        <v>200</v>
+        <v>2050</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>131544</v>
+        <v>1009944</v>
       </c>
       <c r="M12">
-        <v>12561</v>
+        <v>15175</v>
       </c>
       <c r="N12">
-        <v>2081</v>
+        <v>1767</v>
       </c>
       <c r="O12">
-        <v>4230</v>
+        <v>12888</v>
       </c>
       <c r="P12">
-        <v>530</v>
+        <v>142</v>
       </c>
       <c r="Q12">
-        <v>5720</v>
+        <v>378</v>
       </c>
       <c r="R12">
-        <v>1703559</v>
+        <v>3507882</v>
       </c>
       <c r="T12">
         <v>38716</v>
@@ -911,40 +907,40 @@
     </row>
     <row r="13" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F13">
-        <v>241</v>
+        <v>4211</v>
       </c>
       <c r="G13">
-        <v>51</v>
+        <v>341</v>
       </c>
       <c r="H13">
-        <v>190</v>
+        <v>3660</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K13">
-        <v>131580</v>
+        <v>997920</v>
       </c>
       <c r="M13">
-        <v>6681</v>
+        <v>19601</v>
       </c>
       <c r="N13">
-        <v>1372</v>
+        <v>4031</v>
       </c>
       <c r="O13">
-        <v>5260</v>
+        <v>14730</v>
       </c>
       <c r="P13">
-        <v>39</v>
+        <v>640</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="R13">
-        <v>1946880</v>
+        <v>3771450</v>
       </c>
       <c r="T13">
         <v>44822</v>
@@ -967,40 +963,40 @@
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F14">
-        <v>290</v>
+        <v>4010</v>
       </c>
       <c r="G14">
+        <v>330</v>
+      </c>
+      <c r="H14">
+        <v>3570</v>
+      </c>
+      <c r="I14">
+        <v>40</v>
+      </c>
+      <c r="J14">
         <v>70</v>
       </c>
-      <c r="H14">
-        <v>200</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
       <c r="K14">
-        <v>134676</v>
+        <v>1010016</v>
       </c>
       <c r="M14">
-        <v>6001</v>
+        <v>20012</v>
       </c>
       <c r="N14">
-        <v>871</v>
+        <v>4352</v>
       </c>
       <c r="O14">
-        <v>4930</v>
+        <v>13780</v>
       </c>
       <c r="P14">
-        <v>70</v>
+        <v>1880</v>
       </c>
       <c r="Q14">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1956240</v>
+        <v>3732300</v>
       </c>
       <c r="T14">
         <v>38332</v>
@@ -1023,40 +1019,40 @@
     </row>
     <row r="15" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F15">
-        <v>290</v>
+        <v>3561</v>
       </c>
       <c r="G15">
-        <v>60</v>
+        <v>381</v>
       </c>
       <c r="H15">
-        <v>230</v>
+        <v>3170</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>130032</v>
+        <v>1016028</v>
       </c>
       <c r="M15">
-        <v>7581</v>
+        <v>13161</v>
       </c>
       <c r="N15">
-        <v>701</v>
+        <v>1771</v>
       </c>
       <c r="O15">
-        <v>6590</v>
+        <v>11030</v>
       </c>
       <c r="P15">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="R15">
-        <v>1695330</v>
+        <v>3771450</v>
       </c>
       <c r="T15">
         <v>44342</v>
@@ -1079,40 +1075,40 @@
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F16">
-        <v>290</v>
+        <v>3532</v>
       </c>
       <c r="G16">
-        <v>70</v>
+        <v>332</v>
       </c>
       <c r="H16">
-        <v>190</v>
+        <v>3180</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>128484</v>
+        <v>1022112</v>
       </c>
       <c r="M16">
-        <v>4553</v>
+        <v>19179</v>
       </c>
       <c r="N16">
-        <v>772</v>
+        <v>4146</v>
       </c>
       <c r="O16">
-        <v>3751</v>
+        <v>14370</v>
       </c>
       <c r="P16">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>457</v>
       </c>
       <c r="R16">
-        <v>1662960</v>
+        <v>3745350</v>
       </c>
       <c r="T16">
         <v>48375</v>
@@ -1135,90 +1131,90 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F17">
-        <v>322</v>
+        <v>3862</v>
       </c>
       <c r="G17">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="H17">
-        <v>190</v>
+        <v>3170</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="J17">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K17">
-        <v>131580</v>
+        <v>936936</v>
       </c>
       <c r="M17">
-        <v>7136</v>
+        <v>15175</v>
       </c>
       <c r="N17">
-        <v>822</v>
+        <v>1767</v>
       </c>
       <c r="O17">
-        <v>6184</v>
+        <v>12888</v>
       </c>
       <c r="P17">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="R17">
-        <v>1975050</v>
+        <v>3507882</v>
       </c>
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F19">
         <f>AVERAGE(F8:F17)</f>
-        <v>288.39999999999998</v>
+        <v>3459.3</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19:K19" si="0">AVERAGE(G8:G17)</f>
-        <v>75.400000000000006</v>
+        <v>483.1</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>2839.1</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>62.5</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>131727.6</v>
+        <v>968929.2</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19:R19" si="1">AVERAGE(M8:M17)</f>
-        <v>8587.7000000000007</v>
+        <v>17088.599999999999</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>1237.4000000000001</v>
+        <v>2823.9</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>5463.8</v>
+        <v>13185.4</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>209.9</v>
+        <v>869</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>1676.6</v>
+        <v>210.3</v>
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>1863330.9</v>
+        <v>3705722.4</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19:Y19" si="2">AVERAGE(T8:T16)</f>
@@ -1247,16 +1243,16 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s">
         <v>7</v>
-      </c>
-      <c r="M23" t="s">
-        <v>8</v>
-      </c>
-      <c r="T23" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.35">
@@ -1317,40 +1313,40 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F25">
-        <v>450</v>
+        <v>2806</v>
       </c>
       <c r="G25">
-        <v>160</v>
+        <v>572</v>
       </c>
       <c r="H25">
-        <v>240</v>
+        <v>2193</v>
       </c>
       <c r="I25">
         <v>20</v>
       </c>
       <c r="J25">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K25">
-        <v>130032</v>
+        <v>920304</v>
       </c>
       <c r="M25">
-        <v>7620</v>
+        <v>44393</v>
       </c>
       <c r="N25">
-        <v>2080</v>
+        <v>4701</v>
       </c>
       <c r="O25">
-        <v>5160</v>
+        <v>12800</v>
       </c>
       <c r="P25">
-        <v>70</v>
+        <v>5370</v>
       </c>
       <c r="Q25">
-        <v>310</v>
+        <v>21522</v>
       </c>
       <c r="R25">
-        <v>1956150</v>
+        <v>3771450</v>
       </c>
       <c r="T25">
         <v>71133</v>
@@ -1362,7 +1358,7 @@
         <v>37400</v>
       </c>
       <c r="W25">
-        <v>1400</v>
+        <v>6700</v>
       </c>
       <c r="X25">
         <v>25603</v>
@@ -1373,40 +1369,40 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F26">
-        <v>251</v>
+        <v>2560</v>
       </c>
       <c r="G26">
-        <v>71</v>
+        <v>450</v>
       </c>
       <c r="H26">
-        <v>180</v>
+        <v>2100</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>136224</v>
+        <v>851760</v>
       </c>
       <c r="M26">
-        <v>8320</v>
+        <v>16710</v>
       </c>
       <c r="N26">
-        <v>1540</v>
+        <v>4550</v>
       </c>
       <c r="O26">
-        <v>6200</v>
+        <v>12030</v>
       </c>
       <c r="P26">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R26">
-        <v>1843380</v>
+        <v>3745440</v>
       </c>
       <c r="T26">
         <v>41026</v>
@@ -1429,40 +1425,40 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F27">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="H27">
-        <v>220</v>
+        <v>1930</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J27">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>131580</v>
+        <v>920304</v>
       </c>
       <c r="M27">
-        <v>6200</v>
+        <v>14800</v>
       </c>
       <c r="N27">
-        <v>1920</v>
+        <v>1820</v>
       </c>
       <c r="O27">
-        <v>4150</v>
+        <v>12420</v>
       </c>
       <c r="P27">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="R27">
-        <v>1937520</v>
+        <v>3719520</v>
       </c>
       <c r="T27">
         <v>45890</v>
@@ -1485,40 +1481,40 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F28">
-        <v>220</v>
+        <v>2621</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>521</v>
       </c>
       <c r="H28">
-        <v>120</v>
+        <v>2050</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K28">
-        <v>131544</v>
+        <v>1003968</v>
       </c>
       <c r="M28">
-        <v>5850</v>
+        <v>20519</v>
       </c>
       <c r="N28">
-        <v>1030</v>
+        <v>3660</v>
       </c>
       <c r="O28">
-        <v>4570</v>
+        <v>16529</v>
       </c>
       <c r="P28">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q28">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="R28">
-        <v>1956240</v>
+        <v>3784500</v>
       </c>
       <c r="T28">
         <v>40588</v>
@@ -1541,40 +1537,40 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F29">
-        <v>230</v>
+        <v>2881</v>
       </c>
       <c r="G29">
-        <v>60</v>
+        <v>471</v>
       </c>
       <c r="H29">
-        <v>170</v>
+        <v>2080</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>131544</v>
+        <v>1009944</v>
       </c>
       <c r="M29">
-        <v>8320</v>
+        <v>15579</v>
       </c>
       <c r="N29">
-        <v>740</v>
+        <v>1791</v>
       </c>
       <c r="O29">
-        <v>7020</v>
+        <v>12968</v>
       </c>
       <c r="P29">
-        <v>560</v>
+        <v>820</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1703559</v>
+        <v>3758445</v>
       </c>
       <c r="T29">
         <v>45477</v>
@@ -1597,40 +1593,40 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F30">
-        <v>251</v>
+        <v>3711</v>
       </c>
       <c r="G30">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="H30">
-        <v>210</v>
+        <v>3330</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K30">
-        <v>131580</v>
+        <v>997920</v>
       </c>
       <c r="M30">
-        <v>6620</v>
+        <v>21581</v>
       </c>
       <c r="N30">
-        <v>830</v>
+        <v>4481</v>
       </c>
       <c r="O30">
-        <v>5620</v>
+        <v>15140</v>
       </c>
       <c r="P30">
-        <v>50</v>
+        <v>660</v>
       </c>
       <c r="Q30">
-        <v>120</v>
+        <v>1300</v>
       </c>
       <c r="R30">
-        <v>1946880</v>
+        <v>3771450</v>
       </c>
       <c r="T30">
         <v>42411</v>
@@ -1653,40 +1649,40 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F31">
-        <v>250</v>
+        <v>3312</v>
       </c>
       <c r="G31">
-        <v>70</v>
+        <v>382</v>
       </c>
       <c r="H31">
-        <v>170</v>
+        <v>2900</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>134676</v>
+        <v>1010016</v>
       </c>
       <c r="M31">
-        <v>8712</v>
+        <v>27132</v>
       </c>
       <c r="N31">
-        <v>772</v>
+        <v>4002</v>
       </c>
       <c r="O31">
-        <v>7630</v>
+        <v>12920</v>
       </c>
       <c r="P31">
-        <v>60</v>
+        <v>1610</v>
       </c>
       <c r="Q31">
-        <v>250</v>
+        <v>8600</v>
       </c>
       <c r="R31">
-        <v>1956240</v>
+        <v>3732300</v>
       </c>
       <c r="T31">
         <v>51981</v>
@@ -1709,40 +1705,40 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F32">
-        <v>230</v>
+        <v>2232</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="H32">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>130032</v>
+        <v>1016028</v>
       </c>
       <c r="M32">
-        <v>9111</v>
+        <v>16842</v>
       </c>
       <c r="N32">
-        <v>591</v>
+        <v>2022</v>
       </c>
       <c r="O32">
-        <v>3370</v>
+        <v>14330</v>
       </c>
       <c r="P32">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="Q32">
-        <v>4720</v>
+        <v>350</v>
       </c>
       <c r="R32">
-        <v>1695330</v>
+        <v>3771450</v>
       </c>
       <c r="T32">
         <v>41788</v>
@@ -1765,40 +1761,40 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F33">
-        <v>220</v>
+        <v>3872</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>352</v>
       </c>
       <c r="H33">
-        <v>160</v>
+        <v>3430</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>128484</v>
+        <v>1022112</v>
       </c>
       <c r="M33">
-        <v>5572</v>
+        <v>17892</v>
       </c>
       <c r="N33">
-        <v>1032</v>
+        <v>1722</v>
       </c>
       <c r="O33">
-        <v>4450</v>
+        <v>15760</v>
       </c>
       <c r="P33">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="Q33">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="R33">
-        <v>1662960</v>
+        <v>3745350</v>
       </c>
       <c r="T33">
         <v>38886</v>
@@ -1821,40 +1817,40 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F34">
-        <v>280</v>
+        <v>2902</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>402</v>
       </c>
       <c r="H34">
-        <v>170</v>
+        <v>2400</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>131580</v>
+        <v>936936</v>
       </c>
       <c r="M34">
-        <v>5212</v>
+        <v>15861</v>
       </c>
       <c r="N34">
-        <v>1032</v>
+        <v>3171</v>
       </c>
       <c r="O34">
-        <v>4060</v>
+        <v>12470</v>
       </c>
       <c r="P34">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="R34">
-        <v>1975050</v>
+        <v>3507882</v>
       </c>
       <c r="T34">
         <v>42891</v>
@@ -1878,51 +1874,51 @@
     <row r="36" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F36">
         <f>AVERAGE(F25:F34)</f>
-        <v>268.2</v>
+        <v>2929.7</v>
       </c>
       <c r="G36">
         <f t="shared" ref="G36:K36" si="3">AVERAGE(G25:G34)</f>
-        <v>77.2</v>
+        <v>429.3</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>2421.3000000000002</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>21.1</v>
       </c>
       <c r="K36">
         <f t="shared" si="3"/>
-        <v>131727.6</v>
+        <v>968929.2</v>
       </c>
       <c r="M36">
         <f t="shared" ref="M36:R36" si="4">AVERAGE(M25:M34)</f>
-        <v>7153.7</v>
+        <v>21130.9</v>
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>1156.7</v>
+        <v>3192</v>
       </c>
       <c r="O36">
         <f t="shared" si="4"/>
-        <v>5223</v>
+        <v>13736.7</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
-        <v>207</v>
+        <v>927</v>
       </c>
       <c r="Q36">
         <f t="shared" si="4"/>
-        <v>567</v>
+        <v>3275.2</v>
       </c>
       <c r="R36">
         <f t="shared" si="4"/>
-        <v>1863330.9</v>
+        <v>3730778.7</v>
       </c>
       <c r="T36">
         <f t="shared" ref="T36:Y36" si="5">AVERAGE(T25:T34)</f>
@@ -1938,7 +1934,7 @@
       </c>
       <c r="W36">
         <f t="shared" si="5"/>
-        <v>903</v>
+        <v>1433</v>
       </c>
       <c r="X36">
         <f t="shared" si="5"/>
@@ -1951,16 +1947,16 @@
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" t="s">
+        <v>46</v>
+      </c>
+      <c r="T40" t="s">
         <v>7</v>
-      </c>
-      <c r="M40" t="s">
-        <v>8</v>
-      </c>
-      <c r="T40" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.35">
@@ -2021,40 +2017,40 @@
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F42">
-        <v>460</v>
+        <v>3082</v>
       </c>
       <c r="G42">
-        <v>160</v>
+        <v>574</v>
       </c>
       <c r="H42">
-        <v>250</v>
+        <v>2320</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J42">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="K42">
-        <v>130032</v>
+        <v>920304</v>
       </c>
       <c r="M42">
-        <v>7600</v>
+        <v>43319</v>
       </c>
       <c r="N42">
-        <v>2080</v>
+        <v>4045</v>
       </c>
       <c r="O42">
-        <v>5070</v>
+        <v>12404</v>
       </c>
       <c r="P42">
-        <v>80</v>
+        <v>5220</v>
       </c>
       <c r="Q42">
-        <v>370</v>
+        <v>21650</v>
       </c>
       <c r="R42">
-        <v>1956150</v>
+        <v>3771450</v>
       </c>
       <c r="T42">
         <v>73020</v>
@@ -2077,40 +2073,40 @@
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F43">
-        <v>271</v>
+        <v>3192</v>
       </c>
       <c r="G43">
-        <v>91</v>
+        <v>1047</v>
       </c>
       <c r="H43">
-        <v>180</v>
+        <v>2125</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>136224</v>
+        <v>851760</v>
       </c>
       <c r="M43">
-        <v>14540</v>
+        <v>16490</v>
       </c>
       <c r="N43">
-        <v>1330</v>
+        <v>4420</v>
       </c>
       <c r="O43">
-        <v>4160</v>
+        <v>11820</v>
       </c>
       <c r="P43">
-        <v>590</v>
+        <v>100</v>
       </c>
       <c r="Q43">
-        <v>8460</v>
+        <v>150</v>
       </c>
       <c r="R43">
-        <v>1843380</v>
+        <v>3745440</v>
       </c>
       <c r="T43">
         <v>40290</v>
@@ -2133,40 +2129,40 @@
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F44">
-        <v>270</v>
+        <v>3891</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>421</v>
       </c>
       <c r="H44">
-        <v>220</v>
+        <v>3380</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>131580</v>
+        <v>920304</v>
       </c>
       <c r="M44">
-        <v>11100</v>
+        <v>15650</v>
       </c>
       <c r="N44">
-        <v>1120</v>
+        <v>1700</v>
       </c>
       <c r="O44">
-        <v>8220</v>
+        <v>13270</v>
       </c>
       <c r="P44">
-        <v>1630</v>
+        <v>180</v>
       </c>
       <c r="Q44">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="R44">
-        <v>1937520</v>
+        <v>3719520</v>
       </c>
       <c r="T44">
         <v>49860</v>
@@ -2189,40 +2185,40 @@
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F45">
-        <v>240</v>
+        <v>3840</v>
       </c>
       <c r="G45">
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="H45">
-        <v>140</v>
+        <v>3280</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>131544</v>
+        <v>1003968</v>
       </c>
       <c r="M45">
-        <v>6700</v>
+        <v>18771</v>
       </c>
       <c r="N45">
-        <v>780</v>
+        <v>3481</v>
       </c>
       <c r="O45">
-        <v>5020</v>
+        <v>14790</v>
       </c>
       <c r="P45">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="Q45">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="R45">
-        <v>1956240</v>
+        <v>3784500</v>
       </c>
       <c r="T45">
         <v>41471</v>
@@ -2245,40 +2241,40 @@
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F46">
-        <v>240</v>
+        <v>6861</v>
       </c>
       <c r="G46">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="H46">
-        <v>190</v>
+        <v>3560</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2370</v>
       </c>
       <c r="K46">
-        <v>131544</v>
+        <v>1009944</v>
       </c>
       <c r="M46">
-        <v>14411</v>
+        <v>30731</v>
       </c>
       <c r="N46">
-        <v>1661</v>
+        <v>2151</v>
       </c>
       <c r="O46">
-        <v>6200</v>
+        <v>13670</v>
       </c>
       <c r="P46">
-        <v>570</v>
+        <v>1470</v>
       </c>
       <c r="Q46">
-        <v>5980</v>
+        <v>13440</v>
       </c>
       <c r="R46">
-        <v>1703559</v>
+        <v>3758445</v>
       </c>
       <c r="T46">
         <v>44242</v>
@@ -2301,40 +2297,40 @@
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F47">
-        <v>231</v>
+        <v>4840</v>
       </c>
       <c r="G47">
-        <v>51</v>
+        <v>690</v>
       </c>
       <c r="H47">
-        <v>180</v>
+        <v>4040</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>131580</v>
+        <v>997920</v>
       </c>
       <c r="M47">
-        <v>9101</v>
+        <v>18151</v>
       </c>
       <c r="N47">
-        <v>1181</v>
+        <v>4531</v>
       </c>
       <c r="O47">
-        <v>7520</v>
+        <v>11040</v>
       </c>
       <c r="P47">
-        <v>70</v>
+        <v>710</v>
       </c>
       <c r="Q47">
-        <v>330</v>
+        <v>1870</v>
       </c>
       <c r="R47">
-        <v>1946880</v>
+        <v>3771450</v>
       </c>
       <c r="T47">
         <v>50621</v>
@@ -2357,40 +2353,40 @@
     </row>
     <row r="48" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F48">
-        <v>270</v>
+        <v>3240</v>
       </c>
       <c r="G48">
+        <v>550</v>
+      </c>
+      <c r="H48">
+        <v>2580</v>
+      </c>
+      <c r="I48">
+        <v>40</v>
+      </c>
+      <c r="J48">
         <v>70</v>
       </c>
-      <c r="H48">
-        <v>180</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>20</v>
-      </c>
       <c r="K48">
-        <v>134676</v>
+        <v>1010016</v>
       </c>
       <c r="M48">
-        <v>7292</v>
+        <v>30511</v>
       </c>
       <c r="N48">
-        <v>802</v>
+        <v>4231</v>
       </c>
       <c r="O48">
-        <v>5970</v>
+        <v>13300</v>
       </c>
       <c r="P48">
-        <v>90</v>
+        <v>1700</v>
       </c>
       <c r="Q48">
-        <v>430</v>
+        <v>11280</v>
       </c>
       <c r="R48">
-        <v>1956240</v>
+        <v>3732300</v>
       </c>
       <c r="T48">
         <v>42431</v>
@@ -2413,40 +2409,40 @@
     </row>
     <row r="49" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F49">
-        <v>240</v>
+        <v>4091</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="H49">
-        <v>190</v>
+        <v>3730</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>130032</v>
+        <v>1016028</v>
       </c>
       <c r="M49">
-        <v>6951</v>
+        <v>17381</v>
       </c>
       <c r="N49">
-        <v>751</v>
+        <v>4611</v>
       </c>
       <c r="O49">
-        <v>4540</v>
+        <v>12130</v>
       </c>
       <c r="P49">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="Q49">
-        <v>1180</v>
+        <v>440</v>
       </c>
       <c r="R49">
-        <v>1695330</v>
+        <v>3771450</v>
       </c>
       <c r="T49">
         <v>43981</v>
@@ -2469,40 +2465,40 @@
     </row>
     <row r="50" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F50">
-        <v>240</v>
+        <v>4902</v>
       </c>
       <c r="G50">
+        <v>682</v>
+      </c>
+      <c r="H50">
+        <v>4120</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50">
         <v>70</v>
       </c>
-      <c r="H50">
-        <v>140</v>
-      </c>
-      <c r="I50">
-        <v>10</v>
-      </c>
-      <c r="J50">
-        <v>20</v>
-      </c>
       <c r="K50">
-        <v>128484</v>
+        <v>1022112</v>
       </c>
       <c r="M50">
-        <v>3752</v>
+        <v>18632</v>
       </c>
       <c r="N50">
-        <v>642</v>
+        <v>1722</v>
       </c>
       <c r="O50">
-        <v>3020</v>
+        <v>15900</v>
       </c>
       <c r="P50">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="Q50">
-        <v>60</v>
+        <v>630</v>
       </c>
       <c r="R50">
-        <v>1662960</v>
+        <v>3745350</v>
       </c>
       <c r="T50">
         <v>54021</v>
@@ -2525,90 +2521,90 @@
     </row>
     <row r="51" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F51">
-        <v>300</v>
+        <v>2802</v>
       </c>
       <c r="G51">
-        <v>90</v>
+        <v>442</v>
       </c>
       <c r="H51">
-        <v>180</v>
+        <v>2030</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="J51">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="K51">
-        <v>131580</v>
+        <v>936936</v>
       </c>
       <c r="M51">
-        <v>9802</v>
+        <v>15122</v>
       </c>
       <c r="N51">
-        <v>722</v>
+        <v>1802</v>
       </c>
       <c r="O51">
-        <v>7400</v>
+        <v>12700</v>
       </c>
       <c r="P51">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="Q51">
-        <v>1610</v>
+        <v>470</v>
       </c>
       <c r="R51">
-        <v>1975050</v>
+        <v>3507882</v>
       </c>
     </row>
     <row r="53" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F53">
         <f>AVERAGE(F42:F51)</f>
-        <v>276.2</v>
+        <v>4074.1</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53:K53" si="6">AVERAGE(G42:G51)</f>
-        <v>77.2</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="H53">
         <f t="shared" si="6"/>
-        <v>185</v>
+        <v>3116.5</v>
       </c>
       <c r="I53">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>80.7</v>
       </c>
       <c r="J53">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="K53">
         <f t="shared" si="6"/>
-        <v>131727.6</v>
+        <v>968929.2</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53:R53" si="7">AVERAGE(M42:M51)</f>
-        <v>9124.9</v>
+        <v>22475.8</v>
       </c>
       <c r="N53">
         <f t="shared" si="7"/>
-        <v>1106.9000000000001</v>
+        <v>3269.4</v>
       </c>
       <c r="O53">
         <f t="shared" si="7"/>
-        <v>5712</v>
+        <v>13102.4</v>
       </c>
       <c r="P53">
         <f t="shared" si="7"/>
-        <v>389</v>
+        <v>1023</v>
       </c>
       <c r="Q53">
         <f t="shared" si="7"/>
-        <v>1917</v>
+        <v>5081</v>
       </c>
       <c r="R53">
         <f t="shared" si="7"/>
-        <v>1863330.9</v>
+        <v>3730778.7</v>
       </c>
       <c r="T53">
         <f>AVERAGE(T42:T50)</f>
@@ -2645,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05712F4B-C36F-4F82-A643-14E316A29BCD}">
-  <dimension ref="D4:Y54"/>
+  <dimension ref="D4:Y55"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:Y8"/>
+    <sheetView topLeftCell="I41" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2661,27 +2657,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="4:25" x14ac:dyDescent="0.35">
@@ -2742,40 +2738,40 @@
     </row>
     <row r="9" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F9">
-        <v>400</v>
+        <v>4844</v>
       </c>
       <c r="G9">
-        <v>151</v>
+        <v>694</v>
       </c>
       <c r="H9">
-        <v>239</v>
+        <v>2257</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>1697</v>
       </c>
       <c r="K9">
-        <v>150696</v>
+        <v>1192428</v>
       </c>
       <c r="M9">
-        <v>8520</v>
+        <v>20607</v>
       </c>
       <c r="N9">
-        <v>2270</v>
+        <v>4712</v>
       </c>
       <c r="O9">
-        <v>5950</v>
+        <v>15315</v>
       </c>
       <c r="P9">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="R9">
-        <v>2145150</v>
+        <v>4436820</v>
       </c>
       <c r="T9">
         <v>50010</v>
@@ -2798,40 +2794,40 @@
     </row>
     <row r="10" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F10">
-        <v>221</v>
+        <v>5480</v>
       </c>
       <c r="G10">
-        <v>71</v>
+        <v>620</v>
       </c>
       <c r="H10">
-        <v>150</v>
+        <v>4520</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K10">
-        <v>154008</v>
+        <v>1179360</v>
       </c>
       <c r="M10">
-        <v>16900</v>
+        <v>46680</v>
       </c>
       <c r="N10">
-        <v>1880</v>
+        <v>2680</v>
       </c>
       <c r="O10">
-        <v>5200</v>
+        <v>15020</v>
       </c>
       <c r="P10">
-        <v>790</v>
+        <v>6650</v>
       </c>
       <c r="Q10">
-        <v>9030</v>
+        <v>22330</v>
       </c>
       <c r="R10">
-        <v>2268000</v>
+        <v>4436820</v>
       </c>
       <c r="T10">
         <v>53950</v>
@@ -2854,40 +2850,40 @@
     </row>
     <row r="11" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F11">
-        <v>250</v>
+        <v>2360</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>590</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>1760</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>149058</v>
+        <v>1093092</v>
       </c>
       <c r="M11">
-        <v>6880</v>
+        <v>23590</v>
       </c>
       <c r="N11">
-        <v>2420</v>
+        <v>3000</v>
       </c>
       <c r="O11">
-        <v>4350</v>
+        <v>13130</v>
       </c>
       <c r="P11">
-        <v>40</v>
+        <v>610</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>6850</v>
       </c>
       <c r="R11">
-        <v>2288160</v>
+        <v>4408560</v>
       </c>
       <c r="T11">
         <v>53710</v>
@@ -2910,40 +2906,40 @@
     </row>
     <row r="12" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F12">
-        <v>270</v>
+        <v>4940</v>
       </c>
       <c r="G12">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>4390</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K12">
-        <v>157356</v>
+        <v>1185912</v>
       </c>
       <c r="M12">
-        <v>6100</v>
+        <v>22730</v>
       </c>
       <c r="N12">
-        <v>1230</v>
+        <v>1930</v>
       </c>
       <c r="O12">
-        <v>4810</v>
+        <v>14050</v>
       </c>
       <c r="P12">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>6150</v>
       </c>
       <c r="R12">
-        <v>2308500</v>
+        <v>4127760</v>
       </c>
       <c r="T12">
         <v>64630</v>
@@ -2966,40 +2962,40 @@
     </row>
     <row r="13" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F13">
-        <v>300</v>
+        <v>4781</v>
       </c>
       <c r="G13">
-        <v>70</v>
+        <v>381</v>
       </c>
       <c r="H13">
-        <v>220</v>
+        <v>4380</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13">
-        <v>150660</v>
+        <v>1159920</v>
       </c>
       <c r="M13">
-        <v>9451</v>
+        <v>38431</v>
       </c>
       <c r="N13">
-        <v>2021</v>
+        <v>1971</v>
       </c>
       <c r="O13">
-        <v>7390</v>
+        <v>16210</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>2190</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>18060</v>
       </c>
       <c r="R13">
-        <v>2116716</v>
+        <v>4436820</v>
       </c>
       <c r="T13">
         <v>57211</v>
@@ -3022,40 +3018,40 @@
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F14">
-        <v>242</v>
+        <v>4372</v>
       </c>
       <c r="G14">
-        <v>72</v>
+        <v>452</v>
       </c>
       <c r="H14">
-        <v>170</v>
+        <v>3900</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>150696</v>
+        <v>1099098</v>
       </c>
       <c r="M14">
-        <v>7111</v>
+        <v>18102</v>
       </c>
       <c r="N14">
-        <v>1001</v>
+        <v>2672</v>
       </c>
       <c r="O14">
-        <v>6070</v>
+        <v>15280</v>
       </c>
       <c r="P14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R14">
-        <v>2288250</v>
+        <v>4422690</v>
       </c>
       <c r="T14">
         <v>47491</v>
@@ -3078,40 +3074,40 @@
     </row>
     <row r="15" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F15">
-        <v>360</v>
+        <v>6562</v>
       </c>
       <c r="G15">
+        <v>492</v>
+      </c>
+      <c r="H15">
+        <v>2770</v>
+      </c>
+      <c r="I15">
+        <v>440</v>
+      </c>
+      <c r="J15">
+        <v>2860</v>
+      </c>
+      <c r="K15">
+        <v>1205568</v>
+      </c>
+      <c r="M15">
+        <v>16731</v>
+      </c>
+      <c r="N15">
+        <v>2641</v>
+      </c>
+      <c r="O15">
+        <v>13890</v>
+      </c>
+      <c r="P15">
         <v>70</v>
       </c>
-      <c r="H15">
-        <v>290</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>157356</v>
-      </c>
-      <c r="M15">
-        <v>6372</v>
-      </c>
-      <c r="N15">
-        <v>1182</v>
-      </c>
-      <c r="O15">
-        <v>5100</v>
-      </c>
-      <c r="P15">
-        <v>30</v>
-      </c>
       <c r="Q15">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="R15">
-        <v>2298420</v>
+        <v>4422690</v>
       </c>
       <c r="T15">
         <v>52621</v>
@@ -3134,40 +3130,40 @@
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F16">
-        <v>260</v>
+        <v>4082</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>592</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>3480</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>147420</v>
+        <v>1192464</v>
       </c>
       <c r="M16">
-        <v>6211</v>
+        <v>33402</v>
       </c>
       <c r="N16">
-        <v>2001</v>
+        <v>2052</v>
       </c>
       <c r="O16">
-        <v>4190</v>
+        <v>13740</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>5580</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>12030</v>
       </c>
       <c r="R16">
-        <v>2154684</v>
+        <v>4450860</v>
       </c>
       <c r="T16">
         <v>50291</v>
@@ -3190,31 +3186,31 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F17">
-        <v>320</v>
+        <v>3292</v>
       </c>
       <c r="G17">
-        <v>110</v>
+        <v>622</v>
       </c>
       <c r="H17">
-        <v>200</v>
+        <v>2560</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>150696</v>
+        <v>1185912</v>
       </c>
       <c r="M17">
-        <v>7742</v>
+        <v>18812</v>
       </c>
       <c r="N17">
-        <v>902</v>
+        <v>4612</v>
       </c>
       <c r="O17">
-        <v>6790</v>
+        <v>14150</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -3223,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="R17">
-        <v>2164050</v>
+        <v>4167408</v>
       </c>
       <c r="T17">
         <v>48991</v>
@@ -3246,40 +3242,40 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F18">
-        <v>222</v>
+        <v>3992</v>
       </c>
       <c r="G18">
-        <v>72</v>
+        <v>572</v>
       </c>
       <c r="H18">
-        <v>150</v>
+        <v>3380</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K18">
-        <v>129735</v>
+        <v>1192428</v>
       </c>
       <c r="M18">
-        <v>8742</v>
+        <v>19740</v>
       </c>
       <c r="N18">
-        <v>942</v>
+        <v>1830</v>
       </c>
       <c r="O18">
-        <v>6490</v>
+        <v>17630</v>
       </c>
       <c r="P18">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="Q18">
-        <v>1030</v>
+        <v>210</v>
       </c>
       <c r="R18">
-        <v>2308590</v>
+        <v>4465125</v>
       </c>
       <c r="T18">
         <v>56132</v>
@@ -3303,51 +3299,51 @@
     <row r="20" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F20">
         <f>AVERAGE(F9:F18)</f>
-        <v>284.5</v>
+        <v>4470.5</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:K20" si="0">AVERAGE(G9:G18)</f>
-        <v>84.6</v>
+        <v>539.5</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>194.9</v>
+        <v>3339.7</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>82.6</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>508.7</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>149768.1</v>
+        <v>1168618.2</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20:R20" si="1">AVERAGE(M9:M18)</f>
-        <v>8402.9</v>
+        <v>25882.5</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>1584.9</v>
+        <v>2810</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>5634</v>
+        <v>14841.5</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>1597</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>1034</v>
+        <v>6634</v>
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>2234052</v>
+        <v>4377555.3</v>
       </c>
       <c r="T20">
         <f t="shared" ref="T20:Y20" si="2">AVERAGE(T9:T18)</f>
@@ -3374,18 +3370,32 @@
         <v>8963302.5</v>
       </c>
     </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <f xml:space="preserve"> G20 + J20</f>
+        <v>1048.2</v>
+      </c>
+      <c r="N21">
+        <f xml:space="preserve"> N20 + Q20</f>
+        <v>9444</v>
+      </c>
+      <c r="U21">
+        <f xml:space="preserve"> U20 + X20</f>
+        <v>12710.8</v>
+      </c>
+    </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.35">
@@ -3446,40 +3456,40 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F26">
-        <v>440</v>
+        <v>3031</v>
       </c>
       <c r="G26">
-        <v>160</v>
+        <v>582</v>
       </c>
       <c r="H26">
-        <v>190</v>
+        <v>2141</v>
       </c>
       <c r="I26">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J26">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="K26">
-        <v>121014</v>
+        <v>904320</v>
       </c>
       <c r="M26">
-        <v>8400</v>
+        <v>20958</v>
       </c>
       <c r="N26">
-        <v>2060</v>
+        <v>2753</v>
       </c>
       <c r="O26">
-        <v>6030</v>
+        <v>11215</v>
       </c>
       <c r="P26">
-        <v>100</v>
+        <v>3090</v>
       </c>
       <c r="Q26">
-        <v>210</v>
+        <v>3900</v>
       </c>
       <c r="R26">
-        <v>1755270</v>
+        <v>3280455</v>
       </c>
       <c r="T26">
         <v>86699</v>
@@ -3502,40 +3512,40 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F27">
-        <v>491</v>
+        <v>7191</v>
       </c>
       <c r="G27">
-        <v>51</v>
+        <v>1010</v>
       </c>
       <c r="H27">
-        <v>230</v>
+        <v>3051</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="J27">
-        <v>170</v>
+        <v>2790</v>
       </c>
       <c r="K27">
-        <v>118080</v>
+        <v>915840</v>
       </c>
       <c r="M27">
-        <v>7550</v>
+        <v>16430</v>
       </c>
       <c r="N27">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="O27">
-        <v>5460</v>
+        <v>11660</v>
       </c>
       <c r="P27">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>660</v>
       </c>
       <c r="R27">
-        <v>1746405</v>
+        <v>3280500</v>
       </c>
       <c r="T27">
         <v>38710</v>
@@ -3558,40 +3568,40 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F28">
-        <v>210</v>
+        <v>3250</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>670</v>
       </c>
       <c r="H28">
-        <v>170</v>
+        <v>2490</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>121032</v>
+        <v>818598</v>
       </c>
       <c r="M28">
-        <v>5160</v>
+        <v>17780</v>
       </c>
       <c r="N28">
-        <v>780</v>
+        <v>3550</v>
       </c>
       <c r="O28">
-        <v>4200</v>
+        <v>12950</v>
       </c>
       <c r="P28">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="Q28">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="R28">
-        <v>1711125</v>
+        <v>3280455</v>
       </c>
       <c r="T28">
         <v>40210</v>
@@ -3614,40 +3624,40 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F29">
-        <v>180</v>
+        <v>2930</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>1020</v>
       </c>
       <c r="H29">
+        <v>1570</v>
+      </c>
+      <c r="I29">
         <v>130</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K29">
-        <v>119556</v>
+        <v>829026</v>
       </c>
       <c r="M29">
-        <v>7851</v>
+        <v>15120</v>
       </c>
       <c r="N29">
-        <v>551</v>
+        <v>3400</v>
       </c>
       <c r="O29">
-        <v>6720</v>
+        <v>11070</v>
       </c>
       <c r="P29">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R29">
-        <v>1498224</v>
+        <v>3292650</v>
       </c>
       <c r="T29">
         <v>38461</v>
@@ -3670,40 +3680,40 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F30">
-        <v>230</v>
+        <v>2880</v>
       </c>
       <c r="G30">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="H30">
-        <v>160</v>
+        <v>2120</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K30">
-        <v>113760</v>
+        <v>834273</v>
       </c>
       <c r="M30">
-        <v>6371</v>
+        <v>13781</v>
       </c>
       <c r="N30">
-        <v>1831</v>
+        <v>3251</v>
       </c>
       <c r="O30">
-        <v>4320</v>
+        <v>9520</v>
       </c>
       <c r="P30">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="Q30">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="R30">
-        <v>1728720</v>
+        <v>3219930</v>
       </c>
       <c r="T30">
         <v>40180</v>
@@ -3726,40 +3736,40 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F31">
-        <v>191</v>
+        <v>2641</v>
       </c>
       <c r="G31">
-        <v>41</v>
+        <v>461</v>
       </c>
       <c r="H31">
-        <v>150</v>
+        <v>1840</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K31">
-        <v>122508</v>
+        <v>898704</v>
       </c>
       <c r="M31">
-        <v>6531</v>
+        <v>24552</v>
       </c>
       <c r="N31">
-        <v>611</v>
+        <v>3362</v>
       </c>
       <c r="O31">
-        <v>5820</v>
+        <v>10460</v>
       </c>
       <c r="P31">
-        <v>60</v>
+        <v>1660</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>9070</v>
       </c>
       <c r="R31">
-        <v>1505868</v>
+        <v>3280500</v>
       </c>
       <c r="T31">
         <v>32541</v>
@@ -3782,40 +3792,40 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F32">
-        <v>470</v>
+        <v>2141</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>471</v>
       </c>
       <c r="H32">
-        <v>170</v>
+        <v>1620</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J32">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>123984</v>
+        <v>904392</v>
       </c>
       <c r="M32">
-        <v>9091</v>
+        <v>17832</v>
       </c>
       <c r="N32">
-        <v>771</v>
+        <v>2132</v>
       </c>
       <c r="O32">
-        <v>7350</v>
+        <v>13270</v>
       </c>
       <c r="P32">
-        <v>260</v>
+        <v>820</v>
       </c>
       <c r="Q32">
-        <v>710</v>
+        <v>1610</v>
       </c>
       <c r="R32">
-        <v>1746405</v>
+        <v>2993970</v>
       </c>
       <c r="T32">
         <v>41121</v>
@@ -3838,40 +3848,40 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F33">
-        <v>190</v>
+        <v>7531</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="H33">
-        <v>140</v>
+        <v>3210</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>3630</v>
       </c>
       <c r="K33">
-        <v>121032</v>
+        <v>904320</v>
       </c>
       <c r="M33">
-        <v>6312</v>
+        <v>16412</v>
       </c>
       <c r="N33">
-        <v>772</v>
+        <v>2702</v>
       </c>
       <c r="O33">
-        <v>5330</v>
+        <v>12860</v>
       </c>
       <c r="P33">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>590</v>
       </c>
       <c r="R33">
-        <v>1746360</v>
+        <v>3256245</v>
       </c>
       <c r="T33">
         <v>35351</v>
@@ -3894,40 +3904,40 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F34">
-        <v>290</v>
+        <v>3861</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="H34">
-        <v>130</v>
+        <v>3260</v>
       </c>
       <c r="I34">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J34">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="K34">
-        <v>119556</v>
+        <v>881640</v>
       </c>
       <c r="M34">
-        <v>7151</v>
+        <v>16432</v>
       </c>
       <c r="N34">
-        <v>691</v>
+        <v>1622</v>
       </c>
       <c r="O34">
-        <v>6400</v>
+        <v>13950</v>
       </c>
       <c r="P34">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>650</v>
       </c>
       <c r="R34">
-        <v>1580670</v>
+        <v>3304845</v>
       </c>
       <c r="T34">
         <v>40001</v>
@@ -3950,90 +3960,90 @@
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F35">
-        <v>182</v>
+        <v>4051</v>
       </c>
       <c r="G35">
-        <v>62</v>
+        <v>331</v>
       </c>
       <c r="H35">
-        <v>120</v>
+        <v>3410</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K35">
-        <v>100845</v>
+        <v>915840</v>
       </c>
       <c r="M35">
-        <v>12701</v>
+        <v>30053</v>
       </c>
       <c r="N35">
-        <v>741</v>
+        <v>1793</v>
       </c>
       <c r="O35">
-        <v>8220</v>
+        <v>15440</v>
       </c>
       <c r="P35">
-        <v>280</v>
+        <v>1550</v>
       </c>
       <c r="Q35">
-        <v>3460</v>
+        <v>11270</v>
       </c>
       <c r="R35">
-        <v>1746405</v>
+        <v>3280500</v>
       </c>
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F37">
         <f>AVERAGE(F26:F35)</f>
-        <v>287.39999999999998</v>
+        <v>3950.7</v>
       </c>
       <c r="G37">
         <f t="shared" ref="G37:K37" si="3">AVERAGE(G26:G35)</f>
-        <v>62.4</v>
+        <v>563.70000000000005</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>2471.1999999999998</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>125.9</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>789.9</v>
       </c>
       <c r="K37">
         <f t="shared" si="3"/>
-        <v>118136.7</v>
+        <v>880695.3</v>
       </c>
       <c r="M37">
         <f t="shared" ref="M37:R37" si="4">AVERAGE(M26:M35)</f>
-        <v>7711.8</v>
+        <v>18935</v>
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>1080.8</v>
+        <v>2846.5</v>
       </c>
       <c r="O37">
         <f t="shared" si="4"/>
-        <v>5985</v>
+        <v>12239.5</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>853</v>
       </c>
       <c r="Q37">
         <f t="shared" si="4"/>
-        <v>475</v>
+        <v>2996</v>
       </c>
       <c r="R37">
         <f t="shared" si="4"/>
-        <v>1676545.2</v>
+        <v>3247005</v>
       </c>
       <c r="T37">
         <f>AVERAGE(T26:T34)</f>
@@ -4060,18 +4070,32 @@
         <v>6547385</v>
       </c>
     </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <f xml:space="preserve"> G37 + J37</f>
+        <v>1353.6</v>
+      </c>
+      <c r="N38">
+        <f xml:space="preserve"> N37 + Q37</f>
+        <v>5842.5</v>
+      </c>
+      <c r="U38">
+        <f xml:space="preserve"> U37 + X37</f>
+        <v>9999.3333333333339</v>
+      </c>
+    </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M41" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.35">
@@ -4132,40 +4156,40 @@
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F43">
-        <v>530</v>
+        <v>5968</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>391</v>
       </c>
       <c r="H43">
-        <v>380</v>
+        <v>1837</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="J43">
-        <v>40</v>
+        <v>3457</v>
       </c>
       <c r="K43">
-        <v>90738</v>
+        <v>596970</v>
       </c>
       <c r="M43">
-        <v>5760</v>
+        <v>16822</v>
       </c>
       <c r="N43">
-        <v>690</v>
+        <v>2259</v>
       </c>
       <c r="O43">
-        <v>2890</v>
+        <v>7333</v>
       </c>
       <c r="P43">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="Q43">
-        <v>1890</v>
+        <v>6740</v>
       </c>
       <c r="R43">
-        <v>1150380</v>
+        <v>2288160</v>
       </c>
       <c r="T43">
         <v>60510</v>
@@ -4188,40 +4212,40 @@
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F44">
-        <v>371</v>
+        <v>2870</v>
       </c>
       <c r="G44">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="H44">
-        <v>290</v>
+        <v>2310</v>
       </c>
       <c r="I44">
         <v>60</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="K44">
-        <v>71400</v>
+        <v>592515</v>
       </c>
       <c r="M44">
-        <v>3350</v>
+        <v>11010</v>
       </c>
       <c r="N44">
-        <v>580</v>
+        <v>1350</v>
       </c>
       <c r="O44">
-        <v>2630</v>
+        <v>9030</v>
       </c>
       <c r="P44">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q44">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="R44">
-        <v>1122744</v>
+        <v>2277945</v>
       </c>
       <c r="T44">
         <v>28520</v>
@@ -4244,40 +4268,40 @@
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F45">
-        <v>180</v>
+        <v>1710</v>
       </c>
       <c r="G45">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="H45">
-        <v>110</v>
+        <v>1170</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J45">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="K45">
-        <v>75600</v>
+        <v>627120</v>
       </c>
       <c r="M45">
-        <v>4210</v>
+        <v>25940</v>
       </c>
       <c r="N45">
-        <v>680</v>
+        <v>2690</v>
       </c>
       <c r="O45">
-        <v>3210</v>
+        <v>8380</v>
       </c>
       <c r="P45">
-        <v>320</v>
+        <v>1030</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>13840</v>
       </c>
       <c r="R45">
-        <v>1247490</v>
+        <v>2298420</v>
       </c>
       <c r="T45">
         <v>27790</v>
@@ -4300,40 +4324,40 @@
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F46">
-        <v>170</v>
+        <v>2311</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>281</v>
       </c>
       <c r="H46">
-        <v>120</v>
+        <v>1890</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K46">
-        <v>89460</v>
+        <v>641520</v>
       </c>
       <c r="M46">
-        <v>4160</v>
+        <v>12050</v>
       </c>
       <c r="N46">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="O46">
-        <v>2390</v>
+        <v>7910</v>
       </c>
       <c r="P46">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="Q46">
-        <v>360</v>
+        <v>2650</v>
       </c>
       <c r="R46">
-        <v>1129590</v>
+        <v>2257920</v>
       </c>
       <c r="T46">
         <v>26111</v>
@@ -4356,40 +4380,40 @@
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F47">
-        <v>180</v>
+        <v>2200</v>
       </c>
       <c r="G47">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="H47">
+        <v>1780</v>
+      </c>
+      <c r="I47">
+        <v>40</v>
+      </c>
+      <c r="J47">
         <v>110</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>10</v>
-      </c>
       <c r="K47">
-        <v>90738</v>
+        <v>636768</v>
       </c>
       <c r="M47">
-        <v>5071</v>
+        <v>11980</v>
       </c>
       <c r="N47">
-        <v>511</v>
+        <v>940</v>
       </c>
       <c r="O47">
-        <v>4330</v>
+        <v>6740</v>
       </c>
       <c r="P47">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="Q47">
-        <v>130</v>
+        <v>3970</v>
       </c>
       <c r="R47">
-        <v>1023360</v>
+        <v>2288250</v>
       </c>
       <c r="T47">
         <v>30541</v>
@@ -4412,40 +4436,40 @@
     </row>
     <row r="48" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F48">
-        <v>150</v>
+        <v>4661</v>
       </c>
       <c r="G48">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="H48">
-        <v>110</v>
+        <v>1820</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="K48">
-        <v>90738</v>
+        <v>574860</v>
       </c>
       <c r="M48">
-        <v>5961</v>
+        <v>18362</v>
       </c>
       <c r="N48">
-        <v>531</v>
+        <v>1012</v>
       </c>
       <c r="O48">
-        <v>5150</v>
+        <v>7020</v>
       </c>
       <c r="P48">
-        <v>140</v>
+        <v>1130</v>
       </c>
       <c r="Q48">
-        <v>140</v>
+        <v>9200</v>
       </c>
       <c r="R48">
-        <v>1122744</v>
+        <v>2126208</v>
       </c>
       <c r="T48">
         <v>27315</v>
@@ -4468,40 +4492,40 @@
     </row>
     <row r="49" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F49">
-        <v>141</v>
+        <v>2271</v>
       </c>
       <c r="G49">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="H49">
-        <v>80</v>
+        <v>1050</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="J49">
-        <v>30</v>
+        <v>680</v>
       </c>
       <c r="K49">
-        <v>75615</v>
+        <v>646380</v>
       </c>
       <c r="M49">
-        <v>6260</v>
+        <v>16842</v>
       </c>
       <c r="N49">
-        <v>1120</v>
+        <v>1082</v>
       </c>
       <c r="O49">
-        <v>4320</v>
+        <v>8810</v>
       </c>
       <c r="P49">
-        <v>220</v>
+        <v>990</v>
       </c>
       <c r="Q49">
-        <v>600</v>
+        <v>5960</v>
       </c>
       <c r="R49">
-        <v>1136436</v>
+        <v>2288160</v>
       </c>
       <c r="T49">
         <v>36401</v>
@@ -4524,40 +4548,40 @@
     </row>
     <row r="50" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F50">
-        <v>150</v>
+        <v>2982</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="H50">
-        <v>90</v>
+        <v>2190</v>
       </c>
       <c r="I50">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="K50">
-        <v>75615</v>
+        <v>646380</v>
       </c>
       <c r="M50">
-        <v>7785</v>
+        <v>14521</v>
       </c>
       <c r="N50">
-        <v>383</v>
+        <v>1181</v>
       </c>
       <c r="O50">
-        <v>5630</v>
+        <v>7570</v>
       </c>
       <c r="P50">
-        <v>140</v>
+        <v>620</v>
       </c>
       <c r="Q50">
-        <v>1632</v>
+        <v>5150</v>
       </c>
       <c r="R50">
-        <v>1232550</v>
+        <v>2237400</v>
       </c>
       <c r="T50">
         <v>34402</v>
@@ -4580,40 +4604,40 @@
     </row>
     <row r="51" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F51">
-        <v>160</v>
+        <v>2632</v>
       </c>
       <c r="G51">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="H51">
-        <v>110</v>
+        <v>1870</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="J51">
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="K51">
-        <v>90720</v>
+        <v>627228</v>
       </c>
       <c r="M51">
-        <v>2641</v>
+        <v>12211</v>
       </c>
       <c r="N51">
-        <v>341</v>
+        <v>1051</v>
       </c>
       <c r="O51">
-        <v>2070</v>
+        <v>9700</v>
       </c>
       <c r="P51">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="Q51">
-        <v>150</v>
+        <v>1140</v>
       </c>
       <c r="R51">
-        <v>1061736</v>
+        <v>2298420</v>
       </c>
       <c r="T51">
         <v>31272</v>
@@ -4636,40 +4660,40 @@
     </row>
     <row r="52" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F52">
-        <v>160</v>
+        <v>3022</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="H52">
-        <v>110</v>
+        <v>2420</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="K52">
-        <v>93312</v>
+        <v>651240</v>
       </c>
       <c r="M52">
-        <v>4522</v>
+        <v>14212</v>
       </c>
       <c r="N52">
-        <v>472</v>
+        <v>2732</v>
       </c>
       <c r="O52">
-        <v>3530</v>
+        <v>8850</v>
       </c>
       <c r="P52">
-        <v>520</v>
+        <v>610</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="R52">
-        <v>1217610</v>
+        <v>2277945</v>
       </c>
       <c r="T52">
         <v>32042</v>
@@ -4693,51 +4717,51 @@
     <row r="54" spans="6:25" x14ac:dyDescent="0.35">
       <c r="F54">
         <f>AVERAGE(F43:F52)</f>
-        <v>219.2</v>
+        <v>3062.7</v>
       </c>
       <c r="G54">
         <f t="shared" ref="G54:K54" si="6">AVERAGE(G43:G52)</f>
-        <v>39.200000000000003</v>
+        <v>274</v>
       </c>
       <c r="H54">
         <f t="shared" si="6"/>
-        <v>151</v>
+        <v>1833.7</v>
       </c>
       <c r="I54">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="J54">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>821.7</v>
       </c>
       <c r="K54">
         <f t="shared" si="6"/>
-        <v>84393.600000000006</v>
+        <v>624098.1</v>
       </c>
       <c r="M54">
         <f t="shared" ref="M54:R54" si="7">AVERAGE(M43:M52)</f>
-        <v>4972</v>
+        <v>15395</v>
       </c>
       <c r="N54">
         <f t="shared" si="7"/>
-        <v>657.8</v>
+        <v>1554.7</v>
       </c>
       <c r="O54">
         <f t="shared" si="7"/>
-        <v>3615</v>
+        <v>8134.3</v>
       </c>
       <c r="P54">
         <f t="shared" si="7"/>
-        <v>201</v>
+        <v>586</v>
       </c>
       <c r="Q54">
         <f t="shared" si="7"/>
-        <v>498.2</v>
+        <v>5120</v>
       </c>
       <c r="R54">
         <f t="shared" si="7"/>
-        <v>1144464</v>
+        <v>2263882.7999999998</v>
       </c>
       <c r="T54">
         <f t="shared" ref="T54:Y54" si="8">AVERAGE(T43:T52)</f>
@@ -4762,6 +4786,20 @@
       <c r="Y54">
         <f t="shared" si="8"/>
         <v>4502007</v>
+      </c>
+    </row>
+    <row r="55" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <f xml:space="preserve"> G54 + J54</f>
+        <v>1095.7</v>
+      </c>
+      <c r="N55">
+        <f xml:space="preserve"> N54 + Q54</f>
+        <v>6674.7</v>
+      </c>
+      <c r="U55">
+        <f xml:space="preserve"> U54 + X54</f>
+        <v>9108</v>
       </c>
     </row>
   </sheetData>
@@ -4774,10 +4812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966B2AAC-8831-4EA1-BACE-27F61766CCE8}">
-  <dimension ref="D4:Y52"/>
+  <dimension ref="D4:Y55"/>
   <sheetViews>
-    <sheetView topLeftCell="I35" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43:Y48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4786,27 +4824,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="4:25" x14ac:dyDescent="0.35">
@@ -4867,40 +4905,40 @@
     </row>
     <row r="9" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F9">
-        <v>560</v>
+        <v>9225</v>
       </c>
       <c r="G9">
-        <v>120</v>
+        <v>692</v>
       </c>
       <c r="H9">
-        <v>400</v>
+        <v>2201</v>
       </c>
       <c r="I9">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>5922</v>
       </c>
       <c r="K9">
-        <v>106704</v>
+        <v>1127808</v>
       </c>
       <c r="M9">
-        <v>8470</v>
+        <v>53758</v>
       </c>
       <c r="N9">
-        <v>2180</v>
+        <v>4878</v>
       </c>
       <c r="O9">
-        <v>6040</v>
+        <v>14990</v>
       </c>
       <c r="P9">
-        <v>210</v>
+        <v>5640</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>28250</v>
       </c>
       <c r="R9">
-        <v>2009592</v>
+        <v>4811760</v>
       </c>
       <c r="T9">
         <v>62240</v>
@@ -4912,7 +4950,7 @@
         <v>47250</v>
       </c>
       <c r="W9">
-        <v>70</v>
+        <v>5640</v>
       </c>
       <c r="X9">
         <v>30</v>
@@ -4923,40 +4961,40 @@
     </row>
     <row r="10" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F10">
-        <v>411</v>
+        <v>6540</v>
       </c>
       <c r="G10">
-        <v>51</v>
+        <v>790</v>
       </c>
       <c r="H10">
-        <v>160</v>
+        <v>2810</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="J10">
-        <v>140</v>
+        <v>2580</v>
       </c>
       <c r="K10">
-        <v>105336</v>
+        <v>1121472</v>
       </c>
       <c r="M10">
-        <v>18690</v>
+        <v>36680</v>
       </c>
       <c r="N10">
-        <v>2010</v>
+        <v>2850</v>
       </c>
       <c r="O10">
-        <v>5590</v>
+        <v>14880</v>
       </c>
       <c r="P10">
-        <v>990</v>
+        <v>1720</v>
       </c>
       <c r="Q10">
-        <v>10100</v>
+        <v>17230</v>
       </c>
       <c r="R10">
-        <v>2308590</v>
+        <v>4797090</v>
       </c>
       <c r="T10">
         <v>49150</v>
@@ -4968,7 +5006,7 @@
         <v>44540</v>
       </c>
       <c r="W10">
-        <v>80</v>
+        <v>1720</v>
       </c>
       <c r="X10">
         <v>50</v>
@@ -4979,40 +5017,40 @@
     </row>
     <row r="11" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F11">
-        <v>220</v>
+        <v>2860</v>
       </c>
       <c r="G11">
+        <v>620</v>
+      </c>
+      <c r="H11">
+        <v>2190</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>1115100</v>
+      </c>
+      <c r="M11">
+        <v>22090</v>
+      </c>
+      <c r="N11">
+        <v>3700</v>
+      </c>
+      <c r="O11">
+        <v>18020</v>
+      </c>
+      <c r="P11">
         <v>80</v>
       </c>
-      <c r="H11">
-        <v>130</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>103950</v>
-      </c>
-      <c r="M11">
-        <v>8570</v>
-      </c>
-      <c r="N11">
-        <v>2340</v>
-      </c>
-      <c r="O11">
-        <v>6150</v>
-      </c>
-      <c r="P11">
-        <v>30</v>
-      </c>
       <c r="Q11">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="R11">
-        <v>2298375</v>
+        <v>4782375</v>
       </c>
       <c r="T11">
         <v>58831</v>
@@ -5035,40 +5073,40 @@
     </row>
     <row r="12" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F12">
-        <v>210</v>
+        <v>3631</v>
       </c>
       <c r="G12">
-        <v>40</v>
+        <v>1301</v>
       </c>
       <c r="H12">
-        <v>170</v>
+        <v>2290</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>106650</v>
+        <v>1127700</v>
       </c>
       <c r="M12">
-        <v>6882</v>
+        <v>16710</v>
       </c>
       <c r="N12">
-        <v>1112</v>
+        <v>2350</v>
       </c>
       <c r="O12">
-        <v>5720</v>
+        <v>14300</v>
       </c>
       <c r="P12">
         <v>20</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R12">
-        <v>2318625</v>
+        <v>4811625</v>
       </c>
       <c r="T12">
         <v>55501</v>
@@ -5091,40 +5129,40 @@
     </row>
     <row r="13" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F13">
-        <v>200</v>
+        <v>2441</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>411</v>
       </c>
       <c r="H13">
-        <v>140</v>
+        <v>2010</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>101232</v>
+        <v>1010592</v>
       </c>
       <c r="M13">
-        <v>6001</v>
+        <v>16351</v>
       </c>
       <c r="N13">
-        <v>1011</v>
+        <v>1901</v>
       </c>
       <c r="O13">
-        <v>4950</v>
+        <v>14370</v>
       </c>
       <c r="P13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="R13">
-        <v>2126208</v>
+        <v>4753080</v>
       </c>
       <c r="T13">
         <v>54431</v>
@@ -5147,40 +5185,40 @@
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F14">
-        <v>221</v>
+        <v>2711</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>471</v>
       </c>
       <c r="H14">
-        <v>140</v>
+        <v>2100</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J14">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>105336</v>
+        <v>1121472</v>
       </c>
       <c r="M14">
-        <v>9541</v>
+        <v>22641</v>
       </c>
       <c r="N14">
-        <v>851</v>
+        <v>4821</v>
       </c>
       <c r="O14">
-        <v>8630</v>
+        <v>17520</v>
       </c>
       <c r="P14">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="R14">
-        <v>2308590</v>
+        <v>4797090</v>
       </c>
       <c r="T14">
         <v>53901</v>
@@ -5203,40 +5241,40 @@
     </row>
     <row r="15" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F15">
-        <v>190</v>
+        <v>2961</v>
       </c>
       <c r="G15">
+        <v>441</v>
+      </c>
+      <c r="H15">
+        <v>2470</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>1039698</v>
+      </c>
+      <c r="M15">
+        <v>18422</v>
+      </c>
+      <c r="N15">
+        <v>2002</v>
+      </c>
+      <c r="O15">
+        <v>16310</v>
+      </c>
+      <c r="P15">
         <v>40</v>
       </c>
-      <c r="H15">
-        <v>130</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>108108</v>
-      </c>
-      <c r="M15">
-        <v>6782</v>
-      </c>
-      <c r="N15">
-        <v>902</v>
-      </c>
-      <c r="O15">
-        <v>5760</v>
-      </c>
-      <c r="P15">
-        <v>30</v>
-      </c>
       <c r="Q15">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="R15">
-        <v>2173752</v>
+        <v>4826520</v>
       </c>
       <c r="T15">
         <v>53891</v>
@@ -5259,40 +5297,40 @@
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F16">
-        <v>210</v>
+        <v>3002</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>412</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>2540</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>105300</v>
+        <v>1027950</v>
       </c>
       <c r="M16">
-        <v>5112</v>
+        <v>18511</v>
       </c>
       <c r="N16">
-        <v>822</v>
+        <v>2221</v>
       </c>
       <c r="O16">
-        <v>4260</v>
+        <v>16230</v>
       </c>
       <c r="P16">
         <v>30</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R16">
-        <v>2154600</v>
+        <v>4797000</v>
       </c>
       <c r="T16">
         <v>52191</v>
@@ -5315,128 +5353,128 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F17">
-        <v>250</v>
+        <v>2852</v>
       </c>
       <c r="G17">
+        <v>402</v>
+      </c>
+      <c r="H17">
+        <v>2430</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>1127808</v>
+      </c>
+      <c r="M17">
+        <v>20203</v>
+      </c>
+      <c r="N17">
+        <v>4723</v>
+      </c>
+      <c r="O17">
+        <v>15370</v>
+      </c>
+      <c r="P17">
+        <v>40</v>
+      </c>
+      <c r="Q17">
         <v>70</v>
       </c>
-      <c r="H17">
-        <v>160</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>20</v>
-      </c>
-      <c r="K17">
-        <v>106704</v>
-      </c>
-      <c r="M17">
-        <v>7081</v>
-      </c>
-      <c r="N17">
-        <v>851</v>
-      </c>
-      <c r="O17">
-        <v>6190</v>
-      </c>
-      <c r="P17">
-        <v>20</v>
-      </c>
-      <c r="Q17">
-        <v>20</v>
-      </c>
       <c r="R17">
-        <v>2164176</v>
+        <v>4811760</v>
       </c>
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F18">
-        <v>300</v>
+        <v>4522</v>
       </c>
       <c r="G18">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>2610</v>
       </c>
       <c r="I18">
-        <v>40</v>
+        <v>390</v>
       </c>
       <c r="J18">
-        <v>60</v>
+        <v>1110</v>
       </c>
       <c r="K18">
-        <v>106704</v>
+        <v>1127808</v>
       </c>
       <c r="M18">
-        <v>10452</v>
+        <v>15181</v>
       </c>
       <c r="N18">
-        <v>842</v>
+        <v>2001</v>
       </c>
       <c r="O18">
-        <v>8670</v>
+        <v>13020</v>
       </c>
       <c r="P18">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="Q18">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="R18">
-        <v>2318760</v>
+        <v>4490976</v>
       </c>
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F20">
         <f>AVERAGE(F9:F18)</f>
-        <v>277.2</v>
+        <v>4074.5</v>
       </c>
       <c r="G20">
         <f t="shared" ref="G20:K20" si="0">AVERAGE(G9:G18)</f>
-        <v>63.2</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>2365.1</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>982.2</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>105602.4</v>
+        <v>1094740.8</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20:R20" si="1">AVERAGE(M9:M18)</f>
-        <v>8758.1</v>
+        <v>24054.7</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>1292.0999999999999</v>
+        <v>3144.7</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>6196</v>
+        <v>15501</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>778</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>1102</v>
+        <v>4631</v>
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>2218126.7999999998</v>
+        <v>4767927.5999999996</v>
       </c>
       <c r="T20">
         <f>AVERAGE(T9:T16)</f>
@@ -5452,7 +5490,7 @@
       </c>
       <c r="W20">
         <f t="shared" si="2"/>
-        <v>92.5</v>
+        <v>993.75</v>
       </c>
       <c r="X20">
         <f t="shared" si="2"/>
@@ -5463,18 +5501,32 @@
         <v>10219995</v>
       </c>
     </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <f>G20 + J20</f>
+        <v>1577.4</v>
+      </c>
+      <c r="N21">
+        <f>N20 + Q20</f>
+        <v>7775.7</v>
+      </c>
+      <c r="U21">
+        <f>U20 + X20</f>
+        <v>8737</v>
+      </c>
+    </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.35">
@@ -5535,40 +5587,40 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F26">
-        <v>420</v>
+        <v>3093</v>
       </c>
       <c r="G26">
-        <v>90</v>
+        <v>582</v>
       </c>
       <c r="H26">
-        <v>260</v>
+        <v>2095</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J26">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="K26">
-        <v>61560</v>
+        <v>904320</v>
       </c>
       <c r="M26">
-        <v>7430</v>
+        <v>20032</v>
       </c>
       <c r="N26">
-        <v>2090</v>
+        <v>4724</v>
       </c>
       <c r="O26">
-        <v>5200</v>
+        <v>14679</v>
       </c>
       <c r="P26">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="R26">
-        <v>1956150</v>
+        <v>4282650</v>
       </c>
       <c r="T26">
         <v>53690</v>
@@ -5591,40 +5643,40 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F27">
-        <v>221</v>
+        <v>7100</v>
       </c>
       <c r="G27">
-        <v>31</v>
+        <v>988</v>
       </c>
       <c r="H27">
-        <v>120</v>
+        <v>3080</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="J27">
-        <v>50</v>
+        <v>2702</v>
       </c>
       <c r="K27">
-        <v>63720</v>
+        <v>915840</v>
       </c>
       <c r="M27">
-        <v>15470</v>
+        <v>39075</v>
       </c>
       <c r="N27">
-        <v>1840</v>
+        <v>3886</v>
       </c>
       <c r="O27">
-        <v>5330</v>
+        <v>13517</v>
       </c>
       <c r="P27">
-        <v>790</v>
+        <v>1836</v>
       </c>
       <c r="Q27">
-        <v>7510</v>
+        <v>19836</v>
       </c>
       <c r="R27">
-        <v>1843380</v>
+        <v>4310550</v>
       </c>
       <c r="T27">
         <v>48970</v>
@@ -5647,40 +5699,40 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F28">
-        <v>140</v>
+        <v>3656</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>664</v>
       </c>
       <c r="H28">
-        <v>90</v>
+        <v>2912</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>59508</v>
+        <v>818598</v>
       </c>
       <c r="M28">
-        <v>7610</v>
+        <v>15357</v>
       </c>
       <c r="N28">
-        <v>1300</v>
+        <v>2846</v>
       </c>
       <c r="O28">
-        <v>6020</v>
+        <v>12325</v>
       </c>
       <c r="P28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q28">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="R28">
-        <v>1937520</v>
+        <v>4255020</v>
       </c>
       <c r="T28">
         <v>65560</v>
@@ -5703,40 +5755,40 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F29">
-        <v>200</v>
+        <v>2935</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>1017</v>
       </c>
       <c r="H29">
-        <v>90</v>
+        <v>1588</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="J29">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="K29">
-        <v>61596</v>
+        <v>829026</v>
       </c>
       <c r="M29">
-        <v>7830</v>
+        <v>22446</v>
       </c>
       <c r="N29">
-        <v>860</v>
+        <v>4647</v>
       </c>
       <c r="O29">
-        <v>5990</v>
+        <v>15620</v>
       </c>
       <c r="P29">
-        <v>280</v>
+        <v>721</v>
       </c>
       <c r="Q29">
-        <v>700</v>
+        <v>1458</v>
       </c>
       <c r="R29">
-        <v>1956240</v>
+        <v>4282740</v>
       </c>
       <c r="T29">
         <v>59440</v>
@@ -5759,40 +5811,40 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F30">
-        <v>230</v>
+        <v>2824</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>469</v>
       </c>
       <c r="H30">
-        <v>80</v>
+        <v>2041</v>
       </c>
       <c r="I30">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="J30">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="K30">
-        <v>62658</v>
+        <v>834273</v>
       </c>
       <c r="M30">
-        <v>10031</v>
+        <v>32737</v>
       </c>
       <c r="N30">
-        <v>961</v>
+        <v>2465</v>
       </c>
       <c r="O30">
-        <v>3810</v>
+        <v>13041</v>
       </c>
       <c r="P30">
-        <v>560</v>
+        <v>1712</v>
       </c>
       <c r="Q30">
-        <v>4700</v>
+        <v>15519</v>
       </c>
       <c r="R30">
-        <v>1703559</v>
+        <v>4296645</v>
       </c>
       <c r="T30">
         <v>54161</v>
@@ -5815,40 +5867,40 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F31">
-        <v>120</v>
+        <v>2396</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>498</v>
       </c>
       <c r="H31">
-        <v>80</v>
+        <v>1566</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="K31">
-        <v>60552</v>
+        <v>898704</v>
       </c>
       <c r="M31">
-        <v>7001</v>
+        <v>22194</v>
       </c>
       <c r="N31">
-        <v>2361</v>
+        <v>4395</v>
       </c>
       <c r="O31">
-        <v>4590</v>
+        <v>15308</v>
       </c>
       <c r="P31">
-        <v>40</v>
+        <v>609</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>1882</v>
       </c>
       <c r="R31">
-        <v>1946880</v>
+        <v>4268880</v>
       </c>
       <c r="T31">
         <v>53851</v>
@@ -5871,40 +5923,40 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F32">
-        <v>140</v>
+        <v>1832</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>318</v>
       </c>
       <c r="H32">
-        <v>80</v>
+        <v>1469</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K32">
-        <v>61596</v>
+        <v>904392</v>
       </c>
       <c r="M32">
-        <v>8523</v>
+        <v>18833</v>
       </c>
       <c r="N32">
-        <v>753</v>
+        <v>4398</v>
       </c>
       <c r="O32">
-        <v>7400</v>
+        <v>14277</v>
       </c>
       <c r="P32">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="Q32">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="R32">
-        <v>1956240</v>
+        <v>4282740</v>
       </c>
       <c r="T32">
         <v>47541</v>
@@ -5927,40 +5979,40 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F33">
-        <v>121</v>
+        <v>7682</v>
       </c>
       <c r="G33">
-        <v>21</v>
+        <v>337</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>3275</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="K33">
-        <v>61560</v>
+        <v>904320</v>
       </c>
       <c r="M33">
-        <v>7422</v>
+        <v>17563</v>
       </c>
       <c r="N33">
-        <v>712</v>
+        <v>2165</v>
       </c>
       <c r="O33">
-        <v>6420</v>
+        <v>12908</v>
       </c>
       <c r="P33">
-        <v>270</v>
+        <v>692</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>1798</v>
       </c>
       <c r="R33">
-        <v>1695330</v>
+        <v>4282650</v>
       </c>
       <c r="T33">
         <v>48790</v>
@@ -5983,40 +6035,40 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F34">
-        <v>100</v>
+        <v>3642</v>
       </c>
       <c r="G34">
+        <v>312</v>
+      </c>
+      <c r="H34">
+        <v>3280</v>
+      </c>
+      <c r="I34">
         <v>20</v>
       </c>
-      <c r="H34">
-        <v>80</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K34">
-        <v>57420</v>
+        <v>881640</v>
       </c>
       <c r="M34">
-        <v>4472</v>
+        <v>18959</v>
       </c>
       <c r="N34">
-        <v>692</v>
+        <v>2704</v>
       </c>
       <c r="O34">
-        <v>3740</v>
+        <v>15954</v>
       </c>
       <c r="P34">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="R34">
-        <v>1662960</v>
+        <v>4227300</v>
       </c>
       <c r="T34">
         <v>52102</v>
@@ -6039,90 +6091,90 @@
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F35">
-        <v>150</v>
+        <v>4052</v>
       </c>
       <c r="G35">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="H35">
+        <v>3420</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
         <v>80</v>
       </c>
-      <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>20</v>
-      </c>
       <c r="K35">
-        <v>53100</v>
+        <v>915840</v>
       </c>
       <c r="M35">
-        <v>10071</v>
+        <v>16077</v>
       </c>
       <c r="N35">
-        <v>811</v>
+        <v>2107</v>
       </c>
       <c r="O35">
-        <v>7710</v>
+        <v>13826</v>
       </c>
       <c r="P35">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q35">
-        <v>1500</v>
+        <v>84</v>
       </c>
       <c r="R35">
-        <v>1975050</v>
+        <v>4310550</v>
       </c>
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.35">
       <c r="F37">
         <f>AVERAGE(F26:F35)</f>
-        <v>184.2</v>
+        <v>3921.2</v>
       </c>
       <c r="G37">
         <f t="shared" ref="G37:K37" si="3">AVERAGE(G26:G35)</f>
-        <v>37.200000000000003</v>
+        <v>568.70000000000005</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>2472.6</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>121.9</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>758</v>
       </c>
       <c r="K37">
         <f t="shared" si="3"/>
-        <v>60327</v>
+        <v>880695.3</v>
       </c>
       <c r="M37">
         <f t="shared" ref="M37:R37" si="4">AVERAGE(M26:M35)</f>
-        <v>8586</v>
+        <v>22327.3</v>
       </c>
       <c r="N37">
         <f t="shared" si="4"/>
-        <v>1238</v>
+        <v>3433.7</v>
       </c>
       <c r="O37">
         <f t="shared" si="4"/>
-        <v>5621</v>
+        <v>14145.5</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
-        <v>221</v>
+        <v>593.29999999999995</v>
       </c>
       <c r="Q37">
         <f t="shared" si="4"/>
-        <v>1506</v>
+        <v>4154.8</v>
       </c>
       <c r="R37">
         <f t="shared" si="4"/>
-        <v>1863330.9</v>
+        <v>4279972.5</v>
       </c>
       <c r="T37">
         <f>AVERAGE(T26:T34)</f>
@@ -6149,18 +6201,32 @@
         <v>9380751.666666666</v>
       </c>
     </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <f>G37 + J37</f>
+        <v>1326.7</v>
+      </c>
+      <c r="N38">
+        <f>N37 + Q37</f>
+        <v>7588.5</v>
+      </c>
+      <c r="U38">
+        <f>U37 + X37</f>
+        <v>9385</v>
+      </c>
+    </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="T41" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.35">
@@ -6220,29 +6286,41 @@
       </c>
     </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="F43" s="4">
+        <v>5718</v>
+      </c>
+      <c r="G43" s="4">
+        <v>363</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1664</v>
+      </c>
+      <c r="I43" s="4">
+        <v>362</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3329</v>
+      </c>
+      <c r="K43" s="4">
+        <v>603720</v>
+      </c>
       <c r="M43">
-        <v>5790</v>
+        <v>39869</v>
       </c>
       <c r="N43">
-        <v>700</v>
+        <v>3970</v>
       </c>
       <c r="O43">
-        <v>2900</v>
+        <v>12219</v>
       </c>
       <c r="P43">
-        <v>231</v>
+        <v>4790</v>
       </c>
       <c r="Q43">
-        <v>1959</v>
+        <v>18890</v>
       </c>
       <c r="R43">
-        <v>1159920</v>
+        <v>3515400</v>
       </c>
       <c r="T43">
         <v>54340</v>
@@ -6264,29 +6342,41 @@
       </c>
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="F44" s="4">
+        <v>1860</v>
+      </c>
+      <c r="G44" s="4">
+        <v>400</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1230</v>
+      </c>
+      <c r="I44" s="4">
+        <v>70</v>
+      </c>
+      <c r="J44" s="4">
+        <v>160</v>
+      </c>
+      <c r="K44" s="4">
+        <v>589824</v>
+      </c>
       <c r="M44">
-        <v>6240</v>
+        <v>14910</v>
       </c>
       <c r="N44">
-        <v>1720</v>
+        <v>2290</v>
       </c>
       <c r="O44">
-        <v>4150</v>
+        <v>11800</v>
       </c>
       <c r="P44">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="Q44">
-        <v>250</v>
+        <v>590</v>
       </c>
       <c r="R44">
-        <v>1425780</v>
+        <v>3477780</v>
       </c>
       <c r="T44">
         <v>49220</v>
@@ -6308,29 +6398,41 @@
       </c>
     </row>
     <row r="45" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="F45" s="4">
+        <v>4830</v>
+      </c>
+      <c r="G45" s="4">
+        <v>290</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1930</v>
+      </c>
+      <c r="I45" s="4">
+        <v>200</v>
+      </c>
+      <c r="J45" s="4">
+        <v>2410</v>
+      </c>
+      <c r="K45" s="4">
+        <v>544830</v>
+      </c>
       <c r="M45">
-        <v>7200</v>
+        <v>16840</v>
       </c>
       <c r="N45">
-        <v>550</v>
+        <v>2510</v>
       </c>
       <c r="O45">
-        <v>6020</v>
+        <v>11530</v>
       </c>
       <c r="P45">
-        <v>230</v>
+        <v>620</v>
       </c>
       <c r="Q45">
-        <v>400</v>
+        <v>2180</v>
       </c>
       <c r="R45">
-        <v>1242540</v>
+        <v>3490200</v>
       </c>
       <c r="T45">
         <v>49560</v>
@@ -6352,29 +6454,41 @@
       </c>
     </row>
     <row r="46" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="F46" s="4">
+        <v>3510</v>
+      </c>
+      <c r="G46" s="4">
+        <v>190</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2350</v>
+      </c>
+      <c r="I46" s="4">
+        <v>330</v>
+      </c>
+      <c r="J46" s="4">
+        <v>640</v>
+      </c>
+      <c r="K46" s="4">
+        <v>585144</v>
+      </c>
       <c r="M46">
-        <v>8211</v>
+        <v>32380</v>
       </c>
       <c r="N46">
-        <v>641</v>
+        <v>1880</v>
       </c>
       <c r="O46">
-        <v>3180</v>
+        <v>13010</v>
       </c>
       <c r="P46">
-        <v>580</v>
+        <v>1490</v>
       </c>
       <c r="Q46">
-        <v>3810</v>
+        <v>16000</v>
       </c>
       <c r="R46">
-        <v>1417680</v>
+        <v>3465180</v>
       </c>
       <c r="T46">
         <v>61292</v>
@@ -6396,29 +6510,41 @@
       </c>
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="F47" s="4">
+        <v>1971</v>
+      </c>
+      <c r="G47" s="4">
+        <v>211</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1600</v>
+      </c>
+      <c r="I47" s="4">
+        <v>50</v>
+      </c>
+      <c r="J47" s="4">
+        <v>110</v>
+      </c>
+      <c r="K47" s="4">
+        <v>540672</v>
+      </c>
       <c r="M47">
-        <v>8411</v>
+        <v>16411</v>
       </c>
       <c r="N47">
-        <v>721</v>
+        <v>1541</v>
       </c>
       <c r="O47">
-        <v>5970</v>
+        <v>14310</v>
       </c>
       <c r="P47">
         <v>110</v>
       </c>
       <c r="Q47">
-        <v>1610</v>
+        <v>450</v>
       </c>
       <c r="R47">
-        <v>1425780</v>
+        <v>3477780</v>
       </c>
       <c r="T47">
         <v>48002</v>
@@ -6440,29 +6566,41 @@
       </c>
     </row>
     <row r="48" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="F48" s="4">
+        <v>2943</v>
+      </c>
+      <c r="G48" s="4">
+        <v>213</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2190</v>
+      </c>
+      <c r="I48" s="4">
+        <v>150</v>
+      </c>
+      <c r="J48" s="4">
+        <v>390</v>
+      </c>
+      <c r="K48" s="4">
+        <v>599076</v>
+      </c>
       <c r="M48">
-        <v>4541</v>
+        <v>19292</v>
       </c>
       <c r="N48">
-        <v>541</v>
+        <v>1502</v>
       </c>
       <c r="O48">
-        <v>3670</v>
+        <v>10940</v>
       </c>
       <c r="P48">
-        <v>130</v>
+        <v>620</v>
       </c>
       <c r="Q48">
-        <v>200</v>
+        <v>6230</v>
       </c>
       <c r="R48">
-        <v>1441845</v>
+        <v>3502845</v>
       </c>
       <c r="T48">
         <v>45751</v>
@@ -6483,108 +6621,244 @@
         <v>8281845</v>
       </c>
     </row>
-    <row r="49" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+    <row r="49" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="F49" s="4">
+        <v>1312</v>
+      </c>
+      <c r="G49" s="4">
+        <v>172</v>
+      </c>
+      <c r="H49" s="4">
+        <v>920</v>
+      </c>
+      <c r="I49" s="4">
+        <v>60</v>
+      </c>
+      <c r="J49" s="4">
+        <v>160</v>
+      </c>
+      <c r="K49" s="4">
+        <v>553410</v>
+      </c>
       <c r="M49">
-        <v>4193</v>
+        <v>15771</v>
       </c>
       <c r="N49">
-        <v>463</v>
+        <v>1921</v>
       </c>
       <c r="O49">
-        <v>2810</v>
+        <v>13190</v>
       </c>
       <c r="P49">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="Q49">
-        <v>690</v>
+        <v>480</v>
       </c>
       <c r="R49">
-        <v>1449900</v>
-      </c>
-    </row>
-    <row r="50" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+        <v>3515400</v>
+      </c>
+    </row>
+    <row r="50" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="F50" s="4">
+        <v>2392</v>
+      </c>
+      <c r="G50" s="4">
+        <v>183</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1929</v>
+      </c>
+      <c r="I50" s="4">
+        <v>140</v>
+      </c>
+      <c r="J50" s="4">
+        <v>140</v>
+      </c>
+      <c r="K50" s="4">
+        <v>585216</v>
+      </c>
       <c r="M50">
-        <v>6843</v>
+        <v>16502</v>
       </c>
       <c r="N50">
-        <v>1273</v>
+        <v>3822</v>
       </c>
       <c r="O50">
-        <v>5270</v>
+        <v>12070</v>
       </c>
       <c r="P50">
+        <v>210</v>
+      </c>
+      <c r="Q50">
+        <v>400</v>
+      </c>
+      <c r="R50">
+        <v>3465270</v>
+      </c>
+    </row>
+    <row r="51" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="F51" s="4">
+        <v>2722</v>
+      </c>
+      <c r="G51" s="4">
+        <v>182</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2200</v>
+      </c>
+      <c r="I51" s="4">
         <v>80</v>
       </c>
-      <c r="Q50">
-        <v>220</v>
-      </c>
-      <c r="R50">
-        <v>1323252</v>
-      </c>
-    </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="J51" s="4">
+        <v>260</v>
+      </c>
+      <c r="K51" s="4">
+        <v>589788</v>
+      </c>
       <c r="M51">
-        <v>4022</v>
+        <v>13073</v>
       </c>
       <c r="N51">
-        <v>572</v>
+        <v>1811</v>
       </c>
       <c r="O51">
-        <v>3240</v>
+        <v>10442</v>
       </c>
       <c r="P51">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="Q51">
+        <v>580</v>
+      </c>
+      <c r="R51">
+        <v>3477735</v>
+      </c>
+    </row>
+    <row r="52" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="F52" s="4">
+        <v>2301</v>
+      </c>
+      <c r="G52" s="4">
+        <v>181</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1700</v>
+      </c>
+      <c r="I52" s="4">
         <v>120</v>
       </c>
-      <c r="R51">
-        <v>1330686</v>
-      </c>
-    </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.35">
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="J52" s="4">
+        <v>300</v>
+      </c>
+      <c r="K52" s="4">
+        <v>599076</v>
+      </c>
       <c r="M52">
-        <v>7351</v>
+        <v>27431</v>
       </c>
       <c r="N52">
-        <v>571</v>
+        <v>4101</v>
       </c>
       <c r="O52">
-        <v>6280</v>
+        <v>10800</v>
       </c>
       <c r="P52">
-        <v>500</v>
+        <v>1830</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="R52">
-        <v>1441845</v>
+        <v>3502845</v>
+      </c>
+    </row>
+    <row r="54" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <f>AVERAGE(F43:F52)</f>
+        <v>2955.9</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54:K54" si="6">AVERAGE(G43:G52)</f>
+        <v>238.5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>1771.3</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>156.19999999999999</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="6"/>
+        <v>789.9</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="6"/>
+        <v>579075.6</v>
+      </c>
+      <c r="M54">
+        <f>AVERAGE(M43:M52)</f>
+        <v>21247.9</v>
+      </c>
+      <c r="N54">
+        <f>AVERAGE(N43:N52)</f>
+        <v>2534.8000000000002</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="N54:R54" si="7">AVERAGE(O43:O52)</f>
+        <v>12031.1</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="7"/>
+        <v>1032</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="7"/>
+        <v>5650</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="7"/>
+        <v>3489043.5</v>
+      </c>
+      <c r="T54">
+        <f>AVERAGE(T43:T48)</f>
+        <v>51360.833333333336</v>
+      </c>
+      <c r="U54">
+        <f t="shared" ref="U54:Y54" si="8">AVERAGE(U43:U48)</f>
+        <v>7988.833333333333</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="8"/>
+        <v>39265.333333333336</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="8"/>
+        <v>1200</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="8"/>
+        <v>2906.6666666666665</v>
+      </c>
+      <c r="Y54">
+        <f>AVERAGE(Y43:Y48)</f>
+        <v>8259322.5</v>
+      </c>
+    </row>
+    <row r="55" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <f>G54 + J54</f>
+        <v>1028.4000000000001</v>
+      </c>
+      <c r="N55">
+        <f>N54 + Q54</f>
+        <v>8184.8</v>
+      </c>
+      <c r="U55">
+        <f>U54 + X54</f>
+        <v>10895.5</v>
       </c>
     </row>
   </sheetData>
@@ -6597,36 +6871,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573430F4-4B3E-4C4D-AC90-9B8245FB210A}">
-  <dimension ref="D4:Y54"/>
+  <dimension ref="D4:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="63" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="63" workbookViewId="0">
+      <selection activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.35">
-      <c r="E4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="4:25" x14ac:dyDescent="0.35">
@@ -6704,40 +6978,40 @@
       <c r="K9">
         <v>2212140</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9">
         <v>6851</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9">
         <v>796</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9">
         <v>5840</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9">
         <v>209</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9">
         <v>6</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9">
         <v>1540125</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9">
         <v>3158</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9">
         <v>387</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9">
         <v>2432</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9">
         <v>335</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9">
         <v>4</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9">
         <v>630252</v>
       </c>
     </row>
@@ -6760,40 +7034,40 @@
       <c r="K10">
         <v>2339280</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10">
         <v>8470</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10">
         <v>1630</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>6470</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10">
         <v>130</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10">
         <v>240</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10">
         <v>1531710</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10">
         <v>5015</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10">
         <v>293</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10">
         <v>3392</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10">
         <v>270</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10">
         <v>1060</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10">
         <v>625086</v>
       </c>
     </row>
@@ -6816,40 +7090,40 @@
       <c r="K11">
         <v>2349450</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11">
         <v>9301</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11">
         <v>641</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11">
         <v>4499</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11">
         <v>280</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11">
         <v>3881</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11">
         <v>1507005</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11">
         <v>3840</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11">
         <v>270</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11">
         <v>3180</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11">
         <v>390</v>
       </c>
-      <c r="X11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>609840</v>
       </c>
     </row>
@@ -6872,40 +7146,40 @@
       <c r="K12">
         <v>2173668</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12">
         <v>9361</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12">
         <v>441</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <v>8370</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12">
         <v>80</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12">
         <v>470</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12">
         <v>1429680</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12">
         <v>3401</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12">
         <v>371</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12">
         <v>2560</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12">
         <v>270</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12">
         <v>200</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12">
         <v>594594</v>
       </c>
     </row>
@@ -6928,40 +7202,40 @@
       <c r="K13">
         <v>2339280</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13">
         <v>8101</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13">
         <v>441</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13">
         <v>7530</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13">
         <v>70</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13">
         <v>60</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13">
         <v>1421784</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13">
         <v>3161</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13">
         <v>331</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13">
         <v>2580</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13">
         <v>240</v>
       </c>
-      <c r="X13" s="5">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="5">
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
         <v>574770</v>
       </c>
     </row>
@@ -6984,40 +7258,40 @@
       <c r="K14">
         <v>2359845</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14">
         <v>9381</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14">
         <v>601</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14">
         <v>8610</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14">
         <v>170</v>
       </c>
-      <c r="Q14" s="5">
-        <v>0</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1515150</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14">
         <v>3831</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14">
         <v>211</v>
       </c>
-      <c r="V14" s="5">
+      <c r="V14">
         <v>3130</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14">
         <v>230</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14">
         <v>260</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14">
         <v>653310</v>
       </c>
     </row>
@@ -7040,40 +7314,40 @@
       <c r="K15">
         <v>2370150</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15">
         <v>7641</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15">
         <v>511</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>6820</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15">
         <v>130</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15">
         <v>180</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15">
         <v>1437408</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15">
         <v>4772</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15">
         <v>192</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15">
         <v>2900</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15">
         <v>280</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15">
         <v>1400</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15">
         <v>620004</v>
       </c>
     </row>
@@ -7096,40 +7370,40 @@
       <c r="K16">
         <v>2329020</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16">
         <v>9012</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16">
         <v>492</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16">
         <v>8320</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16">
         <v>180</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16">
         <v>20</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16">
         <v>1506960</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T16">
         <v>3602</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16">
         <v>192</v>
       </c>
-      <c r="V16" s="5">
+      <c r="V16">
         <v>3110</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16">
         <v>270</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16">
         <v>30</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16">
         <v>610650</v>
       </c>
     </row>
@@ -7152,40 +7426,40 @@
       <c r="K17">
         <v>2339235</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17">
         <v>8422</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17">
         <v>502</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17">
         <v>7610</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17">
         <v>130</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17">
         <v>180</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17">
         <v>1498680</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17">
         <v>3952</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17">
         <v>262</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17">
         <v>3170</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17">
         <v>300</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17">
         <v>220</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17">
         <v>637065</v>
       </c>
     </row>
@@ -7208,40 +7482,40 @@
       <c r="K18">
         <v>2359845</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18">
         <v>7291</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18">
         <v>491</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18">
         <v>6440</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18">
         <v>130</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18">
         <v>230</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18">
         <v>1421910</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18">
         <v>6502</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18">
         <v>272</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18">
         <v>3550</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18">
         <v>390</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18">
         <v>2290</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18">
         <v>653400</v>
       </c>
     </row>
@@ -7319,18 +7593,32 @@
         <v>620897.1</v>
       </c>
     </row>
+    <row r="21" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <f xml:space="preserve"> G20 + J20</f>
+        <v>3053</v>
+      </c>
+      <c r="N21">
+        <f xml:space="preserve"> N20 + Q20</f>
+        <v>1181.3000000000002</v>
+      </c>
+      <c r="U21">
+        <f xml:space="preserve"> U20 + X20</f>
+        <v>825.5</v>
+      </c>
+    </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M25" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.35">
@@ -7426,22 +7714,22 @@
       <c r="R27">
         <v>2646270</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27">
         <v>12574</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27">
         <v>2118</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27">
         <v>9986</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W27">
         <v>430</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27">
         <v>40</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="Y27">
         <v>2079252</v>
       </c>
     </row>
@@ -7482,22 +7770,22 @@
       <c r="R28">
         <v>2701080</v>
       </c>
-      <c r="T28" s="5">
+      <c r="T28">
         <v>12210</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28">
         <v>1511</v>
       </c>
-      <c r="V28" s="5">
+      <c r="V28">
         <v>10009</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28">
         <v>310</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28">
         <v>380</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28">
         <v>2217735</v>
       </c>
     </row>
@@ -7538,22 +7826,22 @@
       <c r="R29">
         <v>2690100</v>
       </c>
-      <c r="T29" s="5">
+      <c r="T29">
         <v>14090</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29">
         <v>2540</v>
       </c>
-      <c r="V29" s="5">
+      <c r="V29">
         <v>10870</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29">
         <v>680</v>
       </c>
-      <c r="X29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="5">
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>2187900</v>
       </c>
     </row>
@@ -7594,22 +7882,22 @@
       <c r="R30">
         <v>2668140</v>
       </c>
-      <c r="T30" s="5">
+      <c r="T30">
         <v>12511</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30">
         <v>1261</v>
       </c>
-      <c r="V30" s="5">
+      <c r="V30">
         <v>7590</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W30">
         <v>460</v>
       </c>
-      <c r="X30" s="5">
+      <c r="X30">
         <v>3200</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Y30">
         <v>2158065</v>
       </c>
     </row>
@@ -7650,22 +7938,22 @@
       <c r="R31">
         <v>2711610</v>
       </c>
-      <c r="T31" s="5">
+      <c r="T31">
         <v>12391</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31">
         <v>961</v>
       </c>
-      <c r="V31" s="5">
+      <c r="V31">
         <v>11190</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31">
         <v>200</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31">
         <v>40</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Y31">
         <v>2118825</v>
       </c>
     </row>
@@ -7706,22 +7994,22 @@
       <c r="R32">
         <v>2734200</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32">
         <v>13551</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32">
         <v>2431</v>
       </c>
-      <c r="V32" s="5">
+      <c r="V32">
         <v>10420</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32">
         <v>400</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32">
         <v>300</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32">
         <v>2187810</v>
       </c>
     </row>
@@ -7762,22 +8050,22 @@
       <c r="R33">
         <v>2667870</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33">
         <v>9721</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33">
         <v>971</v>
       </c>
-      <c r="V33" s="5">
+      <c r="V33">
         <v>8360</v>
       </c>
-      <c r="W33" s="5">
+      <c r="W33">
         <v>200</v>
       </c>
-      <c r="X33" s="5">
+      <c r="X33">
         <v>190</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="Y33">
         <v>2207790</v>
       </c>
     </row>
@@ -7818,22 +8106,22 @@
       <c r="R34">
         <v>2690100</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34">
         <v>8411</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34">
         <v>851</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34">
         <v>6900</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34">
         <v>650</v>
       </c>
-      <c r="X34" s="5">
-        <v>10</v>
-      </c>
-      <c r="Y34" s="5">
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34">
         <v>2109150</v>
       </c>
     </row>
@@ -7874,22 +8162,22 @@
       <c r="R35">
         <v>2712150</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35">
         <v>13971</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35">
         <v>931</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35">
         <v>12730</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35">
         <v>290</v>
       </c>
-      <c r="X35" s="5">
+      <c r="X35">
         <v>20</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35">
         <v>2158065</v>
       </c>
     </row>
@@ -7930,22 +8218,22 @@
       <c r="R36">
         <v>2712150</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36">
         <v>16231</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36">
         <v>1141</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36">
         <v>8940</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36">
         <v>880</v>
       </c>
-      <c r="X36" s="5">
+      <c r="X36">
         <v>5270</v>
       </c>
-      <c r="Y36" s="5">
+      <c r="Y36">
         <v>2187900</v>
       </c>
     </row>
@@ -8023,18 +8311,32 @@
         <v>2161249.2000000002</v>
       </c>
     </row>
+    <row r="39" spans="4:25" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <f xml:space="preserve"> G38 + J38</f>
+        <v>6274.8</v>
+      </c>
+      <c r="N39">
+        <f xml:space="preserve"> N38 + Q38</f>
+        <v>6760.9</v>
+      </c>
+      <c r="U39">
+        <f xml:space="preserve"> U38 + X38</f>
+        <v>2416.6</v>
+      </c>
+    </row>
     <row r="43" spans="4:25" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M43" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T43" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="4:25" x14ac:dyDescent="0.35">
@@ -8579,6 +8881,94 @@
       </c>
       <c r="Y54">
         <v>3112560</v>
+      </c>
+    </row>
+    <row r="56" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <f xml:space="preserve"> AVERAGE(F45:F50)</f>
+        <v>51360.833333333336</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56:K56" si="5" xml:space="preserve"> AVERAGE(G45:G50)</f>
+        <v>7988.833333333333</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>39265.333333333336</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>2906.6666666666665</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>8259322.5</v>
+      </c>
+      <c r="M56">
+        <f>AVERAGE(M45:M54)</f>
+        <v>38618.9</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:R56" si="6">AVERAGE(N45:N54)</f>
+        <v>3960.9</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="6"/>
+        <v>24926</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="6"/>
+        <v>1506</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="6"/>
+        <v>8226</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="6"/>
+        <v>5309199</v>
+      </c>
+      <c r="T56">
+        <f t="shared" ref="T56:Y56" si="7">AVERAGE(T45:T54)</f>
+        <v>23212.799999999999</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="7"/>
+        <v>2465.8000000000002</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="7"/>
+        <v>16633</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="7"/>
+        <v>1823</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="7"/>
+        <v>2291</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="7"/>
+        <v>3023235</v>
+      </c>
+    </row>
+    <row r="57" spans="6:25" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <f xml:space="preserve">  G56 + J56</f>
+        <v>10895.5</v>
+      </c>
+      <c r="N57">
+        <f xml:space="preserve">  N56 + Q56</f>
+        <v>12186.9</v>
+      </c>
+      <c r="U57">
+        <f xml:space="preserve">  U56 + X56</f>
+        <v>4756.8</v>
       </c>
     </row>
   </sheetData>
@@ -8604,14 +8994,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:26" x14ac:dyDescent="0.35">
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.35">
       <c r="E5" s="1"/>
@@ -8623,75 +9013,75 @@
     </row>
     <row r="6" spans="4:26" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>19</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>21</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>17</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>18</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>19</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>20</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>21</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>22</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="4:26" x14ac:dyDescent="0.35">
@@ -9398,75 +9788,75 @@
     </row>
     <row r="23" spans="4:26" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>16</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>17</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>18</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>19</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" t="s">
         <v>20</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>21</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>22</v>
       </c>
-      <c r="N24" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" t="s">
-        <v>24</v>
-      </c>
       <c r="Q24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" t="s">
         <v>15</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>16</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>17</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>18</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
         <v>19</v>
       </c>
-      <c r="V24" t="s">
+      <c r="X24" t="s">
         <v>20</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Y24" t="s">
         <v>21</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Z24" t="s">
         <v>22</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.35">
@@ -9863,75 +10253,75 @@
     </row>
     <row r="40" spans="4:26" x14ac:dyDescent="0.35">
       <c r="F40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
         <v>15</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>16</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>18</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>19</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>20</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>21</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
         <v>22</v>
       </c>
-      <c r="N41" t="s">
-        <v>23</v>
-      </c>
-      <c r="O41" t="s">
-        <v>24</v>
-      </c>
       <c r="Q41" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" t="s">
+        <v>14</v>
+      </c>
+      <c r="S41" t="s">
         <v>15</v>
       </c>
-      <c r="R41" t="s">
+      <c r="T41" t="s">
         <v>16</v>
       </c>
-      <c r="S41" t="s">
+      <c r="U41" t="s">
         <v>17</v>
       </c>
-      <c r="T41" t="s">
+      <c r="V41" t="s">
         <v>18</v>
       </c>
-      <c r="U41" t="s">
+      <c r="W41" t="s">
         <v>19</v>
       </c>
-      <c r="V41" t="s">
+      <c r="X41" t="s">
         <v>20</v>
       </c>
-      <c r="W41" t="s">
+      <c r="Y41" t="s">
         <v>21</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Z41" t="s">
         <v>22</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="4:26" x14ac:dyDescent="0.35">
@@ -10328,75 +10718,75 @@
     </row>
     <row r="57" spans="4:26" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
         <v>15</v>
       </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>16</v>
       </c>
-      <c r="H58" t="s">
+      <c r="J58" t="s">
         <v>17</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>18</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>19</v>
       </c>
-      <c r="K58" t="s">
+      <c r="M58" t="s">
         <v>20</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>21</v>
       </c>
-      <c r="M58" t="s">
+      <c r="O58" t="s">
         <v>22</v>
       </c>
-      <c r="N58" t="s">
-        <v>23</v>
-      </c>
-      <c r="O58" t="s">
-        <v>24</v>
-      </c>
       <c r="Q58" t="s">
+        <v>13</v>
+      </c>
+      <c r="R58" t="s">
+        <v>14</v>
+      </c>
+      <c r="S58" t="s">
         <v>15</v>
       </c>
-      <c r="R58" t="s">
+      <c r="T58" t="s">
         <v>16</v>
       </c>
-      <c r="S58" t="s">
+      <c r="U58" t="s">
         <v>17</v>
       </c>
-      <c r="T58" t="s">
+      <c r="V58" t="s">
         <v>18</v>
       </c>
-      <c r="U58" t="s">
+      <c r="W58" t="s">
         <v>19</v>
       </c>
-      <c r="V58" t="s">
+      <c r="X58" t="s">
         <v>20</v>
       </c>
-      <c r="W58" t="s">
+      <c r="Y58" t="s">
         <v>21</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Z58" t="s">
         <v>22</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="59" spans="4:26" x14ac:dyDescent="0.35">
